--- a/data/bible-in-year-fr-mike.xlsx
+++ b/data/bible-in-year-fr-mike.xlsx
@@ -19556,10 +19556,10 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="F230" t="n">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -19567,10 +19567,10 @@
         </is>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>355</v>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
+        <v>774</v>
       </c>
       <c r="J230" t="inlineStr">
         <is>
@@ -19578,19 +19578,19 @@
         </is>
       </c>
       <c r="K230" t="n">
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="L230" t="n">
-        <v>0</v>
+        <v>807</v>
       </c>
       <c r="M230" t="n">
-        <v>0</v>
+        <v>809</v>
       </c>
       <c r="N230" t="n">
-        <v>0</v>
+        <v>837</v>
       </c>
       <c r="O230" t="n">
-        <v>0</v>
+        <v>838</v>
       </c>
       <c r="P230" t="n">
         <v>1534</v>
@@ -19641,10 +19641,10 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F231" t="n">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -19652,10 +19652,10 @@
         </is>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
+        <v>733</v>
       </c>
       <c r="J231" t="inlineStr">
         <is>
@@ -19663,19 +19663,19 @@
         </is>
       </c>
       <c r="K231" t="n">
-        <v>0</v>
+        <v>735</v>
       </c>
       <c r="L231" t="n">
-        <v>0</v>
+        <v>767</v>
       </c>
       <c r="M231" t="n">
-        <v>0</v>
+        <v>769</v>
       </c>
       <c r="N231" t="n">
-        <v>0</v>
+        <v>833</v>
       </c>
       <c r="O231" t="n">
-        <v>0</v>
+        <v>833</v>
       </c>
       <c r="P231" t="n">
         <v>1543</v>
@@ -19726,10 +19726,10 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="F232" t="n">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -19737,10 +19737,10 @@
         </is>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
+        <v>774</v>
       </c>
       <c r="J232" t="inlineStr">
         <is>
@@ -19748,19 +19748,19 @@
         </is>
       </c>
       <c r="K232" t="n">
-        <v>0</v>
+        <v>776</v>
       </c>
       <c r="L232" t="n">
-        <v>0</v>
+        <v>801</v>
       </c>
       <c r="M232" t="n">
-        <v>0</v>
+        <v>802</v>
       </c>
       <c r="N232" t="n">
-        <v>0</v>
+        <v>865</v>
       </c>
       <c r="O232" t="n">
-        <v>0</v>
+        <v>866</v>
       </c>
       <c r="P232" t="n">
         <v>1440</v>
@@ -19811,10 +19811,10 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="F233" t="n">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -19822,10 +19822,10 @@
         </is>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="J233" t="inlineStr">
         <is>
@@ -19833,19 +19833,19 @@
         </is>
       </c>
       <c r="K233" t="n">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="L233" t="n">
-        <v>0</v>
+        <v>626</v>
       </c>
       <c r="M233" t="n">
-        <v>0</v>
+        <v>628</v>
       </c>
       <c r="N233" t="n">
-        <v>0</v>
+        <v>693</v>
       </c>
       <c r="O233" t="n">
-        <v>0</v>
+        <v>694</v>
       </c>
       <c r="P233" t="n">
         <v>1245</v>
@@ -19896,10 +19896,10 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="F234" t="n">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -19907,10 +19907,10 @@
         </is>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="I234" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="J234" t="inlineStr">
         <is>
@@ -19918,19 +19918,19 @@
         </is>
       </c>
       <c r="K234" t="n">
-        <v>0</v>
+        <v>902</v>
       </c>
       <c r="L234" t="n">
-        <v>0</v>
+        <v>932</v>
       </c>
       <c r="M234" t="n">
-        <v>0</v>
+        <v>932</v>
       </c>
       <c r="N234" t="n">
-        <v>0</v>
+        <v>981</v>
       </c>
       <c r="O234" t="n">
-        <v>0</v>
+        <v>982</v>
       </c>
       <c r="P234" t="n">
         <v>1491</v>
@@ -19981,10 +19981,10 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="F235" t="n">
-        <v>0</v>
+        <v>443</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -19992,10 +19992,10 @@
         </is>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="I235" t="n">
-        <v>0</v>
+        <v>809</v>
       </c>
       <c r="J235" t="inlineStr">
         <is>
@@ -20003,19 +20003,19 @@
         </is>
       </c>
       <c r="K235" t="n">
-        <v>0</v>
+        <v>811</v>
       </c>
       <c r="L235" t="n">
-        <v>0</v>
+        <v>841</v>
       </c>
       <c r="M235" t="n">
-        <v>0</v>
+        <v>842</v>
       </c>
       <c r="N235" t="n">
-        <v>0</v>
+        <v>902</v>
       </c>
       <c r="O235" t="n">
-        <v>0</v>
+        <v>903</v>
       </c>
       <c r="P235" t="n">
         <v>1381</v>
@@ -20066,10 +20066,10 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F236" t="n">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -20077,10 +20077,10 @@
         </is>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>491</v>
       </c>
       <c r="I236" t="n">
-        <v>0</v>
+        <v>1034</v>
       </c>
       <c r="J236" t="inlineStr">
         <is>
@@ -20088,19 +20088,19 @@
         </is>
       </c>
       <c r="K236" t="n">
-        <v>0</v>
+        <v>1037</v>
       </c>
       <c r="L236" t="n">
-        <v>0</v>
+        <v>1067</v>
       </c>
       <c r="M236" t="n">
-        <v>0</v>
+        <v>1068</v>
       </c>
       <c r="N236" t="n">
-        <v>0</v>
+        <v>1104</v>
       </c>
       <c r="O236" t="n">
-        <v>0</v>
+        <v>1105</v>
       </c>
       <c r="P236" t="n">
         <v>1627</v>

--- a/data/bible-in-year-fr-mike.xlsx
+++ b/data/bible-in-year-fr-mike.xlsx
@@ -20151,10 +20151,10 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -20162,10 +20162,10 @@
         </is>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
+        <v>1068</v>
       </c>
       <c r="J237" t="inlineStr">
         <is>
@@ -20173,19 +20173,19 @@
         </is>
       </c>
       <c r="K237" t="n">
-        <v>0</v>
+        <v>1070</v>
       </c>
       <c r="L237" t="n">
-        <v>0</v>
+        <v>1101</v>
       </c>
       <c r="M237" t="n">
-        <v>0</v>
+        <v>1103</v>
       </c>
       <c r="N237" t="n">
-        <v>0</v>
+        <v>1187</v>
       </c>
       <c r="O237" t="n">
-        <v>0</v>
+        <v>1188</v>
       </c>
       <c r="P237" t="n">
         <v>1768</v>
@@ -20236,10 +20236,10 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -20247,10 +20247,10 @@
         </is>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>426</v>
       </c>
       <c r="I238" t="n">
-        <v>0</v>
+        <v>954</v>
       </c>
       <c r="J238" t="inlineStr">
         <is>
@@ -20258,19 +20258,19 @@
         </is>
       </c>
       <c r="K238" t="n">
-        <v>0</v>
+        <v>956</v>
       </c>
       <c r="L238" t="n">
-        <v>0</v>
+        <v>986</v>
       </c>
       <c r="M238" t="n">
-        <v>0</v>
+        <v>988</v>
       </c>
       <c r="N238" t="n">
-        <v>0</v>
+        <v>1027</v>
       </c>
       <c r="O238" t="n">
-        <v>0</v>
+        <v>1028</v>
       </c>
       <c r="P238" t="n">
         <v>1633</v>
@@ -20321,10 +20321,10 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F239" t="n">
-        <v>0</v>
+        <v>418</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -20332,10 +20332,10 @@
         </is>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="I239" t="n">
-        <v>0</v>
+        <v>1035</v>
       </c>
       <c r="J239" t="inlineStr">
         <is>
@@ -20343,19 +20343,19 @@
         </is>
       </c>
       <c r="K239" t="n">
-        <v>0</v>
+        <v>1037</v>
       </c>
       <c r="L239" t="n">
-        <v>0</v>
+        <v>1067</v>
       </c>
       <c r="M239" t="n">
-        <v>0</v>
+        <v>1069</v>
       </c>
       <c r="N239" t="n">
-        <v>0</v>
+        <v>1109</v>
       </c>
       <c r="O239" t="n">
-        <v>0</v>
+        <v>1110</v>
       </c>
       <c r="P239" t="n">
         <v>1763</v>
@@ -20406,10 +20406,10 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -20417,10 +20417,10 @@
         </is>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="I240" t="n">
-        <v>0</v>
+        <v>1118</v>
       </c>
       <c r="J240" t="inlineStr">
         <is>
@@ -20428,19 +20428,19 @@
         </is>
       </c>
       <c r="K240" t="n">
-        <v>0</v>
+        <v>1121</v>
       </c>
       <c r="L240" t="n">
-        <v>0</v>
+        <v>1154</v>
       </c>
       <c r="M240" t="n">
-        <v>0</v>
+        <v>1157</v>
       </c>
       <c r="N240" t="n">
-        <v>0</v>
+        <v>1188</v>
       </c>
       <c r="O240" t="n">
-        <v>0</v>
+        <v>1189</v>
       </c>
       <c r="P240" t="n">
         <v>1734</v>
@@ -20491,10 +20491,10 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="F241" t="n">
-        <v>0</v>
+        <v>471</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -20502,10 +20502,10 @@
         </is>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="I241" t="n">
-        <v>0</v>
+        <v>1167</v>
       </c>
       <c r="J241" t="inlineStr">
         <is>
@@ -20513,19 +20513,19 @@
         </is>
       </c>
       <c r="K241" t="n">
-        <v>0</v>
+        <v>1169</v>
       </c>
       <c r="L241" t="n">
-        <v>0</v>
+        <v>1201</v>
       </c>
       <c r="M241" t="n">
-        <v>0</v>
+        <v>1203</v>
       </c>
       <c r="N241" t="n">
-        <v>0</v>
+        <v>1264</v>
       </c>
       <c r="O241" t="n">
-        <v>0</v>
+        <v>1265</v>
       </c>
       <c r="P241" t="n">
         <v>1606</v>
@@ -20576,10 +20576,10 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -20587,10 +20587,10 @@
         </is>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="I242" t="n">
-        <v>0</v>
+        <v>1031</v>
       </c>
       <c r="J242" t="inlineStr">
         <is>
@@ -20598,19 +20598,19 @@
         </is>
       </c>
       <c r="K242" t="n">
-        <v>0</v>
+        <v>1033</v>
       </c>
       <c r="L242" t="n">
-        <v>0</v>
+        <v>1063</v>
       </c>
       <c r="M242" t="n">
-        <v>0</v>
+        <v>1065</v>
       </c>
       <c r="N242" t="n">
-        <v>0</v>
+        <v>1099</v>
       </c>
       <c r="O242" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="P242" t="n">
         <v>1730</v>

--- a/data/bible-in-year-fr-mike.xlsx
+++ b/data/bible-in-year-fr-mike.xlsx
@@ -20661,10 +20661,10 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>498</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -20672,10 +20672,10 @@
         </is>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
+        <v>1083</v>
       </c>
       <c r="J243" t="inlineStr">
         <is>
@@ -20683,19 +20683,19 @@
         </is>
       </c>
       <c r="K243" t="n">
-        <v>0</v>
+        <v>1085</v>
       </c>
       <c r="L243" t="n">
-        <v>0</v>
+        <v>1112</v>
       </c>
       <c r="M243" t="n">
-        <v>0</v>
+        <v>1114</v>
       </c>
       <c r="N243" t="n">
-        <v>0</v>
+        <v>1170</v>
       </c>
       <c r="O243" t="n">
-        <v>0</v>
+        <v>1171</v>
       </c>
       <c r="P243" t="n">
         <v>1703</v>
@@ -20746,10 +20746,10 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="F244" t="n">
-        <v>0</v>
+        <v>534</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -20757,10 +20757,10 @@
         </is>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
+        <v>1155</v>
       </c>
       <c r="J244" t="inlineStr">
         <is>
@@ -20768,19 +20768,19 @@
         </is>
       </c>
       <c r="K244" t="n">
-        <v>0</v>
+        <v>1157</v>
       </c>
       <c r="L244" t="n">
-        <v>0</v>
+        <v>1186</v>
       </c>
       <c r="M244" t="n">
-        <v>0</v>
+        <v>1188</v>
       </c>
       <c r="N244" t="n">
-        <v>0</v>
+        <v>1209</v>
       </c>
       <c r="O244" t="n">
-        <v>0</v>
+        <v>1210</v>
       </c>
       <c r="P244" t="n">
         <v>2000</v>
@@ -20831,10 +20831,10 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F245" t="n">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -20842,10 +20842,10 @@
         </is>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="I245" t="n">
-        <v>0</v>
+        <v>846</v>
       </c>
       <c r="J245" t="inlineStr">
         <is>
@@ -20853,19 +20853,19 @@
         </is>
       </c>
       <c r="K245" t="n">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="L245" t="n">
-        <v>0</v>
+        <v>878</v>
       </c>
       <c r="M245" t="n">
-        <v>0</v>
+        <v>880</v>
       </c>
       <c r="N245" t="n">
-        <v>0</v>
+        <v>919</v>
       </c>
       <c r="O245" t="n">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="P245" t="n">
         <v>1607</v>
@@ -20916,10 +20916,10 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F246" t="n">
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -20927,10 +20927,10 @@
         </is>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>481</v>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
+        <v>797</v>
       </c>
       <c r="J246" t="inlineStr">
         <is>
@@ -20938,19 +20938,19 @@
         </is>
       </c>
       <c r="K246" t="n">
-        <v>0</v>
+        <v>799</v>
       </c>
       <c r="L246" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="M246" t="n">
-        <v>0</v>
+        <v>832</v>
       </c>
       <c r="N246" t="n">
-        <v>0</v>
+        <v>863</v>
       </c>
       <c r="O246" t="n">
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="P246" t="n">
         <v>1312</v>
@@ -21001,10 +21001,10 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F247" t="n">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -21012,10 +21012,10 @@
         </is>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
+        <v>871</v>
       </c>
       <c r="J247" t="inlineStr">
         <is>
@@ -21023,19 +21023,19 @@
         </is>
       </c>
       <c r="K247" t="n">
-        <v>0</v>
+        <v>873</v>
       </c>
       <c r="L247" t="n">
-        <v>0</v>
+        <v>901</v>
       </c>
       <c r="M247" t="n">
-        <v>0</v>
+        <v>903</v>
       </c>
       <c r="N247" t="n">
-        <v>0</v>
+        <v>932</v>
       </c>
       <c r="O247" t="n">
-        <v>0</v>
+        <v>933</v>
       </c>
       <c r="P247" t="n">
         <v>1633</v>
@@ -24502,7 +24502,7 @@
         <v>71</v>
       </c>
       <c r="F289" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>435</v>
       </c>
       <c r="I289" t="n">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="J289" t="inlineStr">
         <is>

--- a/data/bible-in-year-fr-mike.xlsx
+++ b/data/bible-in-year-fr-mike.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U366"/>
+  <dimension ref="A1:Z366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,31 @@
           <t>third_reading_books</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>first_reading_duration</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>second_reading_duration</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>third_reading_duration</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>prayer_duration</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>notes_duration</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -616,6 +641,21 @@
           <t>Psalm 19</t>
         </is>
       </c>
+      <c r="V2" t="n">
+        <v>402</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>98</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>629</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -693,6 +733,21 @@
           <t>Psalm 104</t>
         </is>
       </c>
+      <c r="V3" t="n">
+        <v>-85</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1441</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -770,6 +825,21 @@
           <t>Psalm 136</t>
         </is>
       </c>
+      <c r="V4" t="n">
+        <v>-78</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1082</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -847,6 +917,21 @@
           <t>Psalm 1</t>
         </is>
       </c>
+      <c r="V5" t="n">
+        <v>-78</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1216</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -924,6 +1009,21 @@
           <t>Psalm 2</t>
         </is>
       </c>
+      <c r="V6" t="n">
+        <v>-70</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1047</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1009,6 +1109,21 @@
           <t>Proverbs 1</t>
         </is>
       </c>
+      <c r="V7" t="n">
+        <v>-92</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1076</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1094,6 +1209,21 @@
           <t>Proverbs 1</t>
         </is>
       </c>
+      <c r="V8" t="n">
+        <v>-89</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1131</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1179,6 +1309,21 @@
           <t>Proverbs 1</t>
         </is>
       </c>
+      <c r="V9" t="n">
+        <v>-89</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1171</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1264,6 +1409,21 @@
           <t>Proverbs 2</t>
         </is>
       </c>
+      <c r="V10" t="n">
+        <v>-82</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1292</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1349,6 +1509,21 @@
           <t>Proverbs 2</t>
         </is>
       </c>
+      <c r="V11" t="n">
+        <v>-102</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1247</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1434,6 +1609,21 @@
           <t>Proverbs 2</t>
         </is>
       </c>
+      <c r="V12" t="n">
+        <v>-108</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1183</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1519,6 +1709,21 @@
           <t>Proverbs 2</t>
         </is>
       </c>
+      <c r="V13" t="n">
+        <v>-111</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1191</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1604,6 +1809,21 @@
           <t>Proverbs 2</t>
         </is>
       </c>
+      <c r="V14" t="n">
+        <v>-75</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1248</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1689,6 +1909,21 @@
           <t>Proverbs 3</t>
         </is>
       </c>
+      <c r="V15" t="n">
+        <v>-94</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1774,6 +2009,21 @@
           <t>Proverbs 3</t>
         </is>
       </c>
+      <c r="V16" t="n">
+        <v>-95</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1461</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1859,6 +2109,21 @@
           <t>Proverbs 3</t>
         </is>
       </c>
+      <c r="V17" t="n">
+        <v>-100</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1414</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1944,6 +2209,21 @@
           <t>Proverbs 3</t>
         </is>
       </c>
+      <c r="V18" t="n">
+        <v>-107</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1253</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2029,6 +2309,21 @@
           <t>Proverbs 3</t>
         </is>
       </c>
+      <c r="V19" t="n">
+        <v>-117</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1187</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2114,6 +2409,21 @@
           <t>Proverbs 3</t>
         </is>
       </c>
+      <c r="V20" t="n">
+        <v>-105</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1045</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2199,6 +2509,21 @@
           <t>Proverbs 3</t>
         </is>
       </c>
+      <c r="V21" t="n">
+        <v>-78</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1026</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2284,6 +2609,21 @@
           <t>Proverbs 3</t>
         </is>
       </c>
+      <c r="V22" t="n">
+        <v>-110</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1058</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2369,6 +2709,21 @@
           <t>Proverbs 4</t>
         </is>
       </c>
+      <c r="V23" t="n">
+        <v>-89</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1395</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2454,6 +2809,21 @@
           <t>Proverbs 4</t>
         </is>
       </c>
+      <c r="V24" t="n">
+        <v>-93</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1231</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2539,6 +2909,21 @@
           <t>Proverbs 4</t>
         </is>
       </c>
+      <c r="V25" t="n">
+        <v>-126</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1311</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2624,6 +3009,21 @@
           <t>Psalm 16</t>
         </is>
       </c>
+      <c r="V26" t="n">
+        <v>-89</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1315</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2709,6 +3109,21 @@
           <t>Psalm 17</t>
         </is>
       </c>
+      <c r="V27" t="n">
+        <v>-82</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1399</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2794,6 +3209,21 @@
           <t>Psalm 44</t>
         </is>
       </c>
+      <c r="V28" t="n">
+        <v>-127</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1336</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2879,6 +3309,21 @@
           <t>Psalm 45</t>
         </is>
       </c>
+      <c r="V29" t="n">
+        <v>-88</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1128</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2964,6 +3409,21 @@
           <t>Psalm 46</t>
         </is>
       </c>
+      <c r="V30" t="n">
+        <v>-95</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1366</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3049,6 +3509,21 @@
           <t>Psalm 47</t>
         </is>
       </c>
+      <c r="V31" t="n">
+        <v>-78</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1207</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3134,6 +3609,21 @@
           <t>Psalm 48</t>
         </is>
       </c>
+      <c r="V32" t="n">
+        <v>-122</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1054</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3219,6 +3709,21 @@
           <t>Psalm 49</t>
         </is>
       </c>
+      <c r="V33" t="n">
+        <v>-69</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1072</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3304,6 +3809,21 @@
           <t>Psalm 50</t>
         </is>
       </c>
+      <c r="V34" t="n">
+        <v>-65</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1474</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3389,6 +3909,21 @@
           <t>Psalm 114</t>
         </is>
       </c>
+      <c r="V35" t="n">
+        <v>-111</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1480</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3474,6 +4009,21 @@
           <t>Psalm 53</t>
         </is>
       </c>
+      <c r="V36" t="n">
+        <v>-75</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1096</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3559,6 +4109,21 @@
           <t>Psalm 71</t>
         </is>
       </c>
+      <c r="V37" t="n">
+        <v>-82</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1335</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3644,6 +4209,21 @@
           <t>Psalm 73</t>
         </is>
       </c>
+      <c r="V38" t="n">
+        <v>-80</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1081</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3729,6 +4309,21 @@
           <t>Psalm 74</t>
         </is>
       </c>
+      <c r="V39" t="n">
+        <v>-90</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1520</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3814,6 +4409,21 @@
           <t>Psalm 75</t>
         </is>
       </c>
+      <c r="V40" t="n">
+        <v>-72</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1308</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3899,6 +4509,21 @@
           <t>Psalm 76</t>
         </is>
       </c>
+      <c r="V41" t="n">
+        <v>-137</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1204</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3984,6 +4609,21 @@
           <t>Psalm 77</t>
         </is>
       </c>
+      <c r="V42" t="n">
+        <v>-81</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1430</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4069,6 +4709,21 @@
           <t>Psalm 78</t>
         </is>
       </c>
+      <c r="V43" t="n">
+        <v>-132</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1766</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4154,6 +4809,21 @@
           <t>Psalm 119</t>
         </is>
       </c>
+      <c r="V44" t="n">
+        <v>-104</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1746</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4239,6 +4909,21 @@
           <t>Psalm 119</t>
         </is>
       </c>
+      <c r="V45" t="n">
+        <v>-81</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1675</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4324,6 +5009,21 @@
           <t>Psalm 119</t>
         </is>
       </c>
+      <c r="V46" t="n">
+        <v>-201</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1375</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4409,6 +5109,21 @@
           <t>Psalm 115</t>
         </is>
       </c>
+      <c r="V47" t="n">
+        <v>-121</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1515</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4494,6 +5209,21 @@
           <t>Psalm 79</t>
         </is>
       </c>
+      <c r="V48" t="n">
+        <v>-103</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1438</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4579,6 +5309,21 @@
           <t>Psalm 80</t>
         </is>
       </c>
+      <c r="V49" t="n">
+        <v>-158</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1505</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4664,6 +5409,21 @@
           <t>Psalm 81</t>
         </is>
       </c>
+      <c r="V50" t="n">
+        <v>-169</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1884</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4749,6 +5509,21 @@
           <t>Psalm 82</t>
         </is>
       </c>
+      <c r="V51" t="n">
+        <v>-210</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1656</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4834,6 +5609,21 @@
           <t>Psalm 83</t>
         </is>
       </c>
+      <c r="V52" t="n">
+        <v>-160</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1702</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4919,6 +5709,21 @@
           <t>Psalm 84</t>
         </is>
       </c>
+      <c r="V53" t="n">
+        <v>-378</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1600</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5004,6 +5809,21 @@
           <t>Psalm 85</t>
         </is>
       </c>
+      <c r="V54" t="n">
+        <v>-127</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1404</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5089,6 +5909,21 @@
           <t>Psalm 87</t>
         </is>
       </c>
+      <c r="V55" t="n">
+        <v>-55</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1243</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5174,6 +6009,21 @@
           <t>Psalm 88</t>
         </is>
       </c>
+      <c r="V56" t="n">
+        <v>-114</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1509</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5259,6 +6109,21 @@
           <t>Psalm 90</t>
         </is>
       </c>
+      <c r="V57" t="n">
+        <v>-62</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1376</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5344,6 +6209,21 @@
           <t>Psalm 91</t>
         </is>
       </c>
+      <c r="V58" t="n">
+        <v>-71</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1265</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5429,6 +6309,21 @@
           <t>Psalm 92</t>
         </is>
       </c>
+      <c r="V59" t="n">
+        <v>-62</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1558</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5514,6 +6409,21 @@
           <t>Psalm 93</t>
         </is>
       </c>
+      <c r="V60" t="n">
+        <v>-75</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1237</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5599,6 +6509,21 @@
           <t>Psalm 10</t>
         </is>
       </c>
+      <c r="V61" t="n">
+        <v>-80</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1285</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5684,6 +6609,21 @@
           <t>Psalm 33</t>
         </is>
       </c>
+      <c r="V62" t="n">
+        <v>-67</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1215</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5769,6 +6709,21 @@
           <t>Psalm 94</t>
         </is>
       </c>
+      <c r="V63" t="n">
+        <v>-75</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1292</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5854,6 +6809,21 @@
           <t>Psalm 95</t>
         </is>
       </c>
+      <c r="V64" t="n">
+        <v>-75</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1361</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5939,6 +6909,21 @@
           <t>Psalm 96</t>
         </is>
       </c>
+      <c r="V65" t="n">
+        <v>-79</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1379</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6024,6 +7009,21 @@
           <t>Psalm 97</t>
         </is>
       </c>
+      <c r="V66" t="n">
+        <v>-65</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1562</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6109,6 +7109,21 @@
           <t>Psalm 98</t>
         </is>
       </c>
+      <c r="V67" t="n">
+        <v>-66</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1093</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -6194,6 +7209,21 @@
           <t>Psalm 99</t>
         </is>
       </c>
+      <c r="V68" t="n">
+        <v>-72</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1519</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -6279,6 +7309,21 @@
           <t>Psalm 100</t>
         </is>
       </c>
+      <c r="V69" t="n">
+        <v>-68</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>1528</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -6364,6 +7409,21 @@
           <t>Psalm 102</t>
         </is>
       </c>
+      <c r="V70" t="n">
+        <v>-70</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>1605</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -6449,6 +7509,21 @@
           <t>Psalm 105</t>
         </is>
       </c>
+      <c r="V71" t="n">
+        <v>-59</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1135</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -6534,6 +7609,21 @@
           <t>Psalm 106</t>
         </is>
       </c>
+      <c r="V72" t="n">
+        <v>-75</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1373</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -6619,6 +7709,21 @@
           <t>Psalm 107</t>
         </is>
       </c>
+      <c r="V73" t="n">
+        <v>-68</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1353</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -6704,6 +7809,21 @@
           <t>Psalm 111</t>
         </is>
       </c>
+      <c r="V74" t="n">
+        <v>-92</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1191</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -6789,6 +7909,21 @@
           <t>Psalm 112</t>
         </is>
       </c>
+      <c r="V75" t="n">
+        <v>-77</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1594</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -6874,6 +8009,21 @@
           <t>Psalm 113</t>
         </is>
       </c>
+      <c r="V76" t="n">
+        <v>-108</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>1345</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -6959,6 +8109,21 @@
           <t>Psalm 116</t>
         </is>
       </c>
+      <c r="V77" t="n">
+        <v>-85</v>
+      </c>
+      <c r="W77" t="n">
+        <v>0</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1273</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -7044,6 +8209,21 @@
           <t>Psalm 117</t>
         </is>
       </c>
+      <c r="V78" t="n">
+        <v>-68</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>1265</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -7129,6 +8309,21 @@
           <t>Psalm 118</t>
         </is>
       </c>
+      <c r="V79" t="n">
+        <v>-71</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>1346</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -7214,6 +8409,21 @@
           <t>Psalm 120</t>
         </is>
       </c>
+      <c r="V80" t="n">
+        <v>-92</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>1163</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -7299,6 +8509,21 @@
           <t>Psalm 121</t>
         </is>
       </c>
+      <c r="V81" t="n">
+        <v>-118</v>
+      </c>
+      <c r="W81" t="n">
+        <v>0</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>1187</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -7376,6 +8601,21 @@
           <t>Psalm 123</t>
         </is>
       </c>
+      <c r="V82" t="n">
+        <v>-122</v>
+      </c>
+      <c r="W82" t="n">
+        <v>0</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>1311</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -7453,6 +8693,21 @@
           <t>Psalm 125</t>
         </is>
       </c>
+      <c r="V83" t="n">
+        <v>-77</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>1400</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -7530,6 +8785,21 @@
           <t>Psalm 126</t>
         </is>
       </c>
+      <c r="V84" t="n">
+        <v>-72</v>
+      </c>
+      <c r="W84" t="n">
+        <v>0</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>1081</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -7607,6 +8877,21 @@
           <t>Psalm 128</t>
         </is>
       </c>
+      <c r="V85" t="n">
+        <v>-67</v>
+      </c>
+      <c r="W85" t="n">
+        <v>0</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>1322</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -7684,6 +8969,21 @@
           <t>Psalm 129</t>
         </is>
       </c>
+      <c r="V86" t="n">
+        <v>-90</v>
+      </c>
+      <c r="W86" t="n">
+        <v>0</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1149</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -7761,6 +9061,21 @@
           <t>Psalm 130</t>
         </is>
       </c>
+      <c r="V87" t="n">
+        <v>-78</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>1244</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -7838,6 +9153,21 @@
           <t>Psalm 131</t>
         </is>
       </c>
+      <c r="V88" t="n">
+        <v>-99</v>
+      </c>
+      <c r="W88" t="n">
+        <v>0</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>1156</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -7915,6 +9245,21 @@
           <t>Psalm 132</t>
         </is>
       </c>
+      <c r="V89" t="n">
+        <v>-102</v>
+      </c>
+      <c r="W89" t="n">
+        <v>0</v>
+      </c>
+      <c r="X89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>1282</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -8000,6 +9345,21 @@
           <t>Psalm 133</t>
         </is>
       </c>
+      <c r="V90" t="n">
+        <v>-113</v>
+      </c>
+      <c r="W90" t="n">
+        <v>0</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>1578</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -8085,6 +9445,21 @@
           <t>Psalm 134</t>
         </is>
       </c>
+      <c r="V91" t="n">
+        <v>-97</v>
+      </c>
+      <c r="W91" t="n">
+        <v>0</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>1182</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -8170,6 +9545,21 @@
           <t>Psalm 135</t>
         </is>
       </c>
+      <c r="V92" t="n">
+        <v>-95</v>
+      </c>
+      <c r="W92" t="n">
+        <v>0</v>
+      </c>
+      <c r="X92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>1672</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -8255,6 +9645,21 @@
           <t>Psalm 137</t>
         </is>
       </c>
+      <c r="V93" t="n">
+        <v>-97</v>
+      </c>
+      <c r="W93" t="n">
+        <v>0</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>1675</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -8332,6 +9737,21 @@
           <t>Psalm 146</t>
         </is>
       </c>
+      <c r="V94" t="n">
+        <v>-60</v>
+      </c>
+      <c r="W94" t="n">
+        <v>0</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1255</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -8409,6 +9829,21 @@
           <t>Psalm 147</t>
         </is>
       </c>
+      <c r="V95" t="n">
+        <v>-87</v>
+      </c>
+      <c r="W95" t="n">
+        <v>0</v>
+      </c>
+      <c r="X95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>1452</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -8486,6 +9921,21 @@
           <t>Psalm 148</t>
         </is>
       </c>
+      <c r="V96" t="n">
+        <v>-90</v>
+      </c>
+      <c r="W96" t="n">
+        <v>0</v>
+      </c>
+      <c r="X96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>1470</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -8563,6 +10013,21 @@
           <t>Psalm 149</t>
         </is>
       </c>
+      <c r="V97" t="n">
+        <v>-96</v>
+      </c>
+      <c r="W97" t="n">
+        <v>0</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>1465</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -8640,6 +10105,21 @@
           <t>Psalm 150</t>
         </is>
       </c>
+      <c r="V98" t="n">
+        <v>-100</v>
+      </c>
+      <c r="W98" t="n">
+        <v>0</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>1181</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -8717,6 +10197,21 @@
           <t>Psalm 86</t>
         </is>
       </c>
+      <c r="V99" t="n">
+        <v>-73</v>
+      </c>
+      <c r="W99" t="n">
+        <v>0</v>
+      </c>
+      <c r="X99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>1299</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -8794,6 +10289,21 @@
           <t>Proverbs 5</t>
         </is>
       </c>
+      <c r="V100" t="n">
+        <v>-156</v>
+      </c>
+      <c r="W100" t="n">
+        <v>0</v>
+      </c>
+      <c r="X100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>1493</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -8871,6 +10381,21 @@
           <t>Proverbs 5</t>
         </is>
       </c>
+      <c r="V101" t="n">
+        <v>-124</v>
+      </c>
+      <c r="W101" t="n">
+        <v>0</v>
+      </c>
+      <c r="X101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>1900</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -8948,6 +10473,21 @@
           <t>Proverbs 5</t>
         </is>
       </c>
+      <c r="V102" t="n">
+        <v>-60</v>
+      </c>
+      <c r="W102" t="n">
+        <v>0</v>
+      </c>
+      <c r="X102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>1552</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -9025,6 +10565,21 @@
           <t>Proverbs 6</t>
         </is>
       </c>
+      <c r="V103" t="n">
+        <v>-76</v>
+      </c>
+      <c r="W103" t="n">
+        <v>0</v>
+      </c>
+      <c r="X103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>1522</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -9102,6 +10657,21 @@
           <t>Proverbs 6</t>
         </is>
       </c>
+      <c r="V104" t="n">
+        <v>-73</v>
+      </c>
+      <c r="W104" t="n">
+        <v>0</v>
+      </c>
+      <c r="X104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>1296</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -9179,6 +10749,21 @@
           <t>Proverbs 6</t>
         </is>
       </c>
+      <c r="V105" t="n">
+        <v>-76</v>
+      </c>
+      <c r="W105" t="n">
+        <v>0</v>
+      </c>
+      <c r="X105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>1337</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -9256,6 +10841,21 @@
           <t>Proverbs 6</t>
         </is>
       </c>
+      <c r="V106" t="n">
+        <v>-81</v>
+      </c>
+      <c r="W106" t="n">
+        <v>0</v>
+      </c>
+      <c r="X106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1519</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -9333,6 +10933,21 @@
           <t>Proverbs 6</t>
         </is>
       </c>
+      <c r="V107" t="n">
+        <v>-100</v>
+      </c>
+      <c r="W107" t="n">
+        <v>0</v>
+      </c>
+      <c r="X107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>1276</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -9410,6 +11025,21 @@
           <t>Psalm 55</t>
         </is>
       </c>
+      <c r="V108" t="n">
+        <v>-82</v>
+      </c>
+      <c r="W108" t="n">
+        <v>0</v>
+      </c>
+      <c r="X108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>1259</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -9487,6 +11117,21 @@
           <t>Psalm 58</t>
         </is>
       </c>
+      <c r="V109" t="n">
+        <v>-54</v>
+      </c>
+      <c r="W109" t="n">
+        <v>0</v>
+      </c>
+      <c r="X109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1306</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -9564,6 +11209,21 @@
           <t>Psalm 61</t>
         </is>
       </c>
+      <c r="V110" t="n">
+        <v>-72</v>
+      </c>
+      <c r="W110" t="n">
+        <v>0</v>
+      </c>
+      <c r="X110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>1076</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -9641,6 +11301,21 @@
           <t>Psalm 12</t>
         </is>
       </c>
+      <c r="V111" t="n">
+        <v>-84</v>
+      </c>
+      <c r="W111" t="n">
+        <v>0</v>
+      </c>
+      <c r="X111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>1140</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -9718,6 +11393,21 @@
           <t>Psalm 59</t>
         </is>
       </c>
+      <c r="V112" t="n">
+        <v>-96</v>
+      </c>
+      <c r="W112" t="n">
+        <v>0</v>
+      </c>
+      <c r="X112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>1194</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -9795,6 +11485,21 @@
           <t>Psalm 142</t>
         </is>
       </c>
+      <c r="V113" t="n">
+        <v>-86</v>
+      </c>
+      <c r="W113" t="n">
+        <v>0</v>
+      </c>
+      <c r="X113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>1086</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -9872,6 +11577,21 @@
           <t>Psalm 52</t>
         </is>
       </c>
+      <c r="V114" t="n">
+        <v>-74</v>
+      </c>
+      <c r="W114" t="n">
+        <v>0</v>
+      </c>
+      <c r="X114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>965</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -9949,6 +11669,21 @@
           <t>Psalm 54</t>
         </is>
       </c>
+      <c r="V115" t="n">
+        <v>-52</v>
+      </c>
+      <c r="W115" t="n">
+        <v>0</v>
+      </c>
+      <c r="X115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>757</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -10026,6 +11761,21 @@
           <t>Psalm 57</t>
         </is>
       </c>
+      <c r="V116" t="n">
+        <v>-56</v>
+      </c>
+      <c r="W116" t="n">
+        <v>0</v>
+      </c>
+      <c r="X116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>795</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -10103,6 +11853,21 @@
           <t>Psalm 63</t>
         </is>
       </c>
+      <c r="V117" t="n">
+        <v>-71</v>
+      </c>
+      <c r="W117" t="n">
+        <v>0</v>
+      </c>
+      <c r="X117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>948</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -10180,6 +11945,21 @@
           <t>Psalm 56</t>
         </is>
       </c>
+      <c r="V118" t="n">
+        <v>-67</v>
+      </c>
+      <c r="W118" t="n">
+        <v>0</v>
+      </c>
+      <c r="X118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>742</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -10257,6 +12037,21 @@
           <t>Psalm 34</t>
         </is>
       </c>
+      <c r="V119" t="n">
+        <v>-91</v>
+      </c>
+      <c r="W119" t="n">
+        <v>0</v>
+      </c>
+      <c r="X119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>1223</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -10334,6 +12129,21 @@
           <t>Psalm 18</t>
         </is>
       </c>
+      <c r="V120" t="n">
+        <v>-61</v>
+      </c>
+      <c r="W120" t="n">
+        <v>0</v>
+      </c>
+      <c r="X120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>1278</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -10419,6 +12229,21 @@
           <t>Psalm 13</t>
         </is>
       </c>
+      <c r="V121" t="n">
+        <v>-176</v>
+      </c>
+      <c r="W121" t="n">
+        <v>0</v>
+      </c>
+      <c r="X121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>1138</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -10504,6 +12329,21 @@
           <t>Psalm 24</t>
         </is>
       </c>
+      <c r="V122" t="n">
+        <v>-61</v>
+      </c>
+      <c r="W122" t="n">
+        <v>0</v>
+      </c>
+      <c r="X122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>1167</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -10589,6 +12429,21 @@
           <t>Psalm 25</t>
         </is>
       </c>
+      <c r="V123" t="n">
+        <v>-67</v>
+      </c>
+      <c r="W123" t="n">
+        <v>0</v>
+      </c>
+      <c r="X123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>1486</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -10674,6 +12529,21 @@
           <t>Psalm 26</t>
         </is>
       </c>
+      <c r="V124" t="n">
+        <v>-97</v>
+      </c>
+      <c r="W124" t="n">
+        <v>0</v>
+      </c>
+      <c r="X124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>1389</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -10759,6 +12629,21 @@
           <t>Psalm 27</t>
         </is>
       </c>
+      <c r="V125" t="n">
+        <v>-51</v>
+      </c>
+      <c r="W125" t="n">
+        <v>0</v>
+      </c>
+      <c r="X125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>1402</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -10844,6 +12729,21 @@
           <t>Psalm 89</t>
         </is>
       </c>
+      <c r="V126" t="n">
+        <v>-63</v>
+      </c>
+      <c r="W126" t="n">
+        <v>0</v>
+      </c>
+      <c r="X126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>1942</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -10929,6 +12829,21 @@
           <t>Psalm 60</t>
         </is>
       </c>
+      <c r="V127" t="n">
+        <v>-53</v>
+      </c>
+      <c r="W127" t="n">
+        <v>0</v>
+      </c>
+      <c r="X127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -11014,6 +12929,21 @@
           <t>Psalm 28</t>
         </is>
       </c>
+      <c r="V128" t="n">
+        <v>-62</v>
+      </c>
+      <c r="W128" t="n">
+        <v>0</v>
+      </c>
+      <c r="X128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>1133</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -11099,6 +13029,21 @@
           <t>Psalm 31</t>
         </is>
       </c>
+      <c r="V129" t="n">
+        <v>-57</v>
+      </c>
+      <c r="W129" t="n">
+        <v>0</v>
+      </c>
+      <c r="X129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>967</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -11184,6 +13129,21 @@
           <t>Psalm 32</t>
         </is>
       </c>
+      <c r="V130" t="n">
+        <v>-72</v>
+      </c>
+      <c r="W130" t="n">
+        <v>0</v>
+      </c>
+      <c r="X130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>1344</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -11269,6 +13229,21 @@
           <t>Psalm 51</t>
         </is>
       </c>
+      <c r="V131" t="n">
+        <v>-61</v>
+      </c>
+      <c r="W131" t="n">
+        <v>0</v>
+      </c>
+      <c r="X131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>1150</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -11354,6 +13329,21 @@
           <t>Psalm 35</t>
         </is>
       </c>
+      <c r="V132" t="n">
+        <v>-61</v>
+      </c>
+      <c r="W132" t="n">
+        <v>0</v>
+      </c>
+      <c r="X132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>1468</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -11439,6 +13429,21 @@
           <t>Psalm 14</t>
         </is>
       </c>
+      <c r="V133" t="n">
+        <v>-54</v>
+      </c>
+      <c r="W133" t="n">
+        <v>0</v>
+      </c>
+      <c r="X133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>1007</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -11524,6 +13529,21 @@
           <t>Psalm 3</t>
         </is>
       </c>
+      <c r="V134" t="n">
+        <v>-104</v>
+      </c>
+      <c r="W134" t="n">
+        <v>0</v>
+      </c>
+      <c r="X134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>1160</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -11609,6 +13629,21 @@
           <t>Psalm 15</t>
         </is>
       </c>
+      <c r="V135" t="n">
+        <v>-51</v>
+      </c>
+      <c r="W135" t="n">
+        <v>0</v>
+      </c>
+      <c r="X135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>1112</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -11694,6 +13729,21 @@
           <t>Psalm 36</t>
         </is>
       </c>
+      <c r="V136" t="n">
+        <v>-55</v>
+      </c>
+      <c r="W136" t="n">
+        <v>0</v>
+      </c>
+      <c r="X136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -11779,6 +13829,21 @@
           <t>Psalm 37</t>
         </is>
       </c>
+      <c r="V137" t="n">
+        <v>-52</v>
+      </c>
+      <c r="W137" t="n">
+        <v>0</v>
+      </c>
+      <c r="X137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1345</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -11864,6 +13929,21 @@
           <t>Psalm 38</t>
         </is>
       </c>
+      <c r="V138" t="n">
+        <v>-85</v>
+      </c>
+      <c r="W138" t="n">
+        <v>0</v>
+      </c>
+      <c r="X138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1384</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -11949,6 +14029,21 @@
           <t>Psalm 39</t>
         </is>
       </c>
+      <c r="V139" t="n">
+        <v>-55</v>
+      </c>
+      <c r="W139" t="n">
+        <v>0</v>
+      </c>
+      <c r="X139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1149</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -12034,6 +14129,21 @@
           <t>Psalm 40</t>
         </is>
       </c>
+      <c r="V140" t="n">
+        <v>-61</v>
+      </c>
+      <c r="W140" t="n">
+        <v>0</v>
+      </c>
+      <c r="X140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1335</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -12119,6 +14229,21 @@
           <t>Psalm 41</t>
         </is>
       </c>
+      <c r="V141" t="n">
+        <v>-76</v>
+      </c>
+      <c r="W141" t="n">
+        <v>0</v>
+      </c>
+      <c r="X141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>1224</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -12204,6 +14329,21 @@
           <t>Psalm 42</t>
         </is>
       </c>
+      <c r="V142" t="n">
+        <v>-60</v>
+      </c>
+      <c r="W142" t="n">
+        <v>0</v>
+      </c>
+      <c r="X142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1185</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -12289,6 +14429,21 @@
           <t>Psalm 30</t>
         </is>
       </c>
+      <c r="V143" t="n">
+        <v>-79</v>
+      </c>
+      <c r="W143" t="n">
+        <v>0</v>
+      </c>
+      <c r="X143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1152</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -12374,6 +14529,21 @@
           <t>Psalm 43</t>
         </is>
       </c>
+      <c r="V144" t="n">
+        <v>-70</v>
+      </c>
+      <c r="W144" t="n">
+        <v>0</v>
+      </c>
+      <c r="X144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1326</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -12459,6 +14629,21 @@
           <t>Psalm 62</t>
         </is>
       </c>
+      <c r="V145" t="n">
+        <v>-62</v>
+      </c>
+      <c r="W145" t="n">
+        <v>0</v>
+      </c>
+      <c r="X145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1526</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -12544,6 +14729,21 @@
           <t>Psalm 64</t>
         </is>
       </c>
+      <c r="V146" t="n">
+        <v>-57</v>
+      </c>
+      <c r="W146" t="n">
+        <v>0</v>
+      </c>
+      <c r="X146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1217</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -12629,6 +14829,21 @@
           <t>Psalm 65</t>
         </is>
       </c>
+      <c r="V147" t="n">
+        <v>-53</v>
+      </c>
+      <c r="W147" t="n">
+        <v>0</v>
+      </c>
+      <c r="X147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1348</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -12714,6 +14929,21 @@
           <t>Psalm 66</t>
         </is>
       </c>
+      <c r="V148" t="n">
+        <v>-115</v>
+      </c>
+      <c r="W148" t="n">
+        <v>0</v>
+      </c>
+      <c r="X148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>1293</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -12799,6 +15029,21 @@
           <t>Psalm 4</t>
         </is>
       </c>
+      <c r="V149" t="n">
+        <v>-107</v>
+      </c>
+      <c r="W149" t="n">
+        <v>0</v>
+      </c>
+      <c r="X149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1445</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -12884,6 +15129,21 @@
           <t>Psalm 5</t>
         </is>
       </c>
+      <c r="V150" t="n">
+        <v>-178</v>
+      </c>
+      <c r="W150" t="n">
+        <v>0</v>
+      </c>
+      <c r="X150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1632</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -12969,6 +15229,21 @@
           <t>Psalm 6</t>
         </is>
       </c>
+      <c r="V151" t="n">
+        <v>-87</v>
+      </c>
+      <c r="W151" t="n">
+        <v>0</v>
+      </c>
+      <c r="X151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>1709</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -13054,6 +15329,21 @@
           <t>Psalm 7</t>
         </is>
       </c>
+      <c r="V152" t="n">
+        <v>-86</v>
+      </c>
+      <c r="W152" t="n">
+        <v>0</v>
+      </c>
+      <c r="X152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1272</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -13139,6 +15429,21 @@
           <t>Psalm 8</t>
         </is>
       </c>
+      <c r="V153" t="n">
+        <v>-91</v>
+      </c>
+      <c r="W153" t="n">
+        <v>0</v>
+      </c>
+      <c r="X153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1126</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -13224,6 +15529,21 @@
           <t>Psalm 9</t>
         </is>
       </c>
+      <c r="V154" t="n">
+        <v>-83</v>
+      </c>
+      <c r="W154" t="n">
+        <v>0</v>
+      </c>
+      <c r="X154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1435</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -13301,6 +15621,21 @@
           <t>Psalm 11</t>
         </is>
       </c>
+      <c r="V155" t="n">
+        <v>-290</v>
+      </c>
+      <c r="W155" t="n">
+        <v>0</v>
+      </c>
+      <c r="X155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1689</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -13378,6 +15713,21 @@
           <t>Psalm 20</t>
         </is>
       </c>
+      <c r="V156" t="n">
+        <v>-66</v>
+      </c>
+      <c r="W156" t="n">
+        <v>0</v>
+      </c>
+      <c r="X156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1271</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -13455,6 +15805,21 @@
           <t>Psalm 21</t>
         </is>
       </c>
+      <c r="V157" t="n">
+        <v>-59</v>
+      </c>
+      <c r="W157" t="n">
+        <v>0</v>
+      </c>
+      <c r="X157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1363</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -13532,6 +15897,21 @@
           <t>Psalm 23</t>
         </is>
       </c>
+      <c r="V158" t="n">
+        <v>-80</v>
+      </c>
+      <c r="W158" t="n">
+        <v>0</v>
+      </c>
+      <c r="X158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1735</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -13609,6 +15989,21 @@
           <t>Psalm 29</t>
         </is>
       </c>
+      <c r="V159" t="n">
+        <v>-64</v>
+      </c>
+      <c r="W159" t="n">
+        <v>0</v>
+      </c>
+      <c r="X159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1732</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -13686,6 +16081,21 @@
           <t>Psalm 67</t>
         </is>
       </c>
+      <c r="V160" t="n">
+        <v>-85</v>
+      </c>
+      <c r="W160" t="n">
+        <v>0</v>
+      </c>
+      <c r="X160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1340</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -13763,6 +16173,21 @@
           <t>Psalm 68</t>
         </is>
       </c>
+      <c r="V161" t="n">
+        <v>-78</v>
+      </c>
+      <c r="W161" t="n">
+        <v>0</v>
+      </c>
+      <c r="X161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1486</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -13840,6 +16265,21 @@
           <t>Psalm 22</t>
         </is>
       </c>
+      <c r="V162" t="n">
+        <v>-97</v>
+      </c>
+      <c r="W162" t="n">
+        <v>0</v>
+      </c>
+      <c r="X162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1165</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -13925,6 +16365,21 @@
           <t>Song</t>
         </is>
       </c>
+      <c r="V163" t="n">
+        <v>-107</v>
+      </c>
+      <c r="W163" t="n">
+        <v>0</v>
+      </c>
+      <c r="X163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1439</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -14010,6 +16465,21 @@
           <t>Song</t>
         </is>
       </c>
+      <c r="V164" t="n">
+        <v>-157</v>
+      </c>
+      <c r="W164" t="n">
+        <v>0</v>
+      </c>
+      <c r="X164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1460</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -14095,6 +16565,21 @@
           <t>Song</t>
         </is>
       </c>
+      <c r="V165" t="n">
+        <v>-61</v>
+      </c>
+      <c r="W165" t="n">
+        <v>0</v>
+      </c>
+      <c r="X165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1390</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -14180,6 +16665,21 @@
           <t>Song</t>
         </is>
       </c>
+      <c r="V166" t="n">
+        <v>-84</v>
+      </c>
+      <c r="W166" t="n">
+        <v>0</v>
+      </c>
+      <c r="X166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>1576</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -14265,6 +16765,21 @@
           <t>Song</t>
         </is>
       </c>
+      <c r="V167" t="n">
+        <v>-71</v>
+      </c>
+      <c r="W167" t="n">
+        <v>0</v>
+      </c>
+      <c r="X167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>1537</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -14350,6 +16865,21 @@
           <t>Song</t>
         </is>
       </c>
+      <c r="V168" t="n">
+        <v>-56</v>
+      </c>
+      <c r="W168" t="n">
+        <v>0</v>
+      </c>
+      <c r="X168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>1690</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -14435,6 +16965,21 @@
           <t>Song</t>
         </is>
       </c>
+      <c r="V169" t="n">
+        <v>-53</v>
+      </c>
+      <c r="W169" t="n">
+        <v>0</v>
+      </c>
+      <c r="X169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>1276</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -14520,6 +17065,21 @@
           <t>Song</t>
         </is>
       </c>
+      <c r="V170" t="n">
+        <v>-60</v>
+      </c>
+      <c r="W170" t="n">
+        <v>0</v>
+      </c>
+      <c r="X170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>1189</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -14605,6 +17165,21 @@
           <t>Psalm 69</t>
         </is>
       </c>
+      <c r="V171" t="n">
+        <v>-70</v>
+      </c>
+      <c r="W171" t="n">
+        <v>0</v>
+      </c>
+      <c r="X171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>1251</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -14690,6 +17265,21 @@
           <t>Psalm 70</t>
         </is>
       </c>
+      <c r="V172" t="n">
+        <v>-130</v>
+      </c>
+      <c r="W172" t="n">
+        <v>0</v>
+      </c>
+      <c r="X172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1470</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -14775,6 +17365,21 @@
           <t>Psalm 72</t>
         </is>
       </c>
+      <c r="V173" t="n">
+        <v>-72</v>
+      </c>
+      <c r="W173" t="n">
+        <v>0</v>
+      </c>
+      <c r="X173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1095</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -14860,6 +17465,21 @@
           <t>Psalm 127</t>
         </is>
       </c>
+      <c r="V174" t="n">
+        <v>-109</v>
+      </c>
+      <c r="W174" t="n">
+        <v>0</v>
+      </c>
+      <c r="X174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1491</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -14945,6 +17565,21 @@
           <t>Psalm 101</t>
         </is>
       </c>
+      <c r="V175" t="n">
+        <v>-82</v>
+      </c>
+      <c r="W175" t="n">
+        <v>0</v>
+      </c>
+      <c r="X175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>1448</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -15030,6 +17665,21 @@
           <t>Psalm 103</t>
         </is>
       </c>
+      <c r="V176" t="n">
+        <v>-72</v>
+      </c>
+      <c r="W176" t="n">
+        <v>0</v>
+      </c>
+      <c r="X176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>1598</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -15115,6 +17765,21 @@
           <t>Psalm 108</t>
         </is>
       </c>
+      <c r="V177" t="n">
+        <v>-59</v>
+      </c>
+      <c r="W177" t="n">
+        <v>0</v>
+      </c>
+      <c r="X177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>1282</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -15200,6 +17865,21 @@
           <t>Psalm 109</t>
         </is>
       </c>
+      <c r="V178" t="n">
+        <v>-103</v>
+      </c>
+      <c r="W178" t="n">
+        <v>0</v>
+      </c>
+      <c r="X178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>1617</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -15285,6 +17965,21 @@
           <t>Psalm 110</t>
         </is>
       </c>
+      <c r="V179" t="n">
+        <v>-78</v>
+      </c>
+      <c r="W179" t="n">
+        <v>0</v>
+      </c>
+      <c r="X179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>1395</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -15370,6 +18065,21 @@
           <t>Psalm 122</t>
         </is>
       </c>
+      <c r="V180" t="n">
+        <v>-68</v>
+      </c>
+      <c r="W180" t="n">
+        <v>0</v>
+      </c>
+      <c r="X180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1623</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -15455,6 +18165,21 @@
           <t>Psalm 124</t>
         </is>
       </c>
+      <c r="V181" t="n">
+        <v>-68</v>
+      </c>
+      <c r="W181" t="n">
+        <v>0</v>
+      </c>
+      <c r="X181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>1379</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -15540,6 +18265,21 @@
           <t>Psalm 138</t>
         </is>
       </c>
+      <c r="V182" t="n">
+        <v>-130</v>
+      </c>
+      <c r="W182" t="n">
+        <v>0</v>
+      </c>
+      <c r="X182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>1599</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -15625,6 +18365,21 @@
           <t>Psalm 139</t>
         </is>
       </c>
+      <c r="V183" t="n">
+        <v>-123</v>
+      </c>
+      <c r="W183" t="n">
+        <v>0</v>
+      </c>
+      <c r="X183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>1545</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -15710,6 +18465,21 @@
           <t>Psalm 140</t>
         </is>
       </c>
+      <c r="V184" t="n">
+        <v>-145</v>
+      </c>
+      <c r="W184" t="n">
+        <v>0</v>
+      </c>
+      <c r="X184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>1695</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -15795,6 +18565,21 @@
           <t>Psalm 141</t>
         </is>
       </c>
+      <c r="V185" t="n">
+        <v>-96</v>
+      </c>
+      <c r="W185" t="n">
+        <v>0</v>
+      </c>
+      <c r="X185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>1411</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -15880,6 +18665,21 @@
           <t>Psalm 143</t>
         </is>
       </c>
+      <c r="V186" t="n">
+        <v>-72</v>
+      </c>
+      <c r="W186" t="n">
+        <v>0</v>
+      </c>
+      <c r="X186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>1215</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -15965,6 +18765,21 @@
           <t>Psalm 144</t>
         </is>
       </c>
+      <c r="V187" t="n">
+        <v>-57</v>
+      </c>
+      <c r="W187" t="n">
+        <v>0</v>
+      </c>
+      <c r="X187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>920</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -16050,6 +18865,21 @@
           <t>Psalm 145</t>
         </is>
       </c>
+      <c r="V188" t="n">
+        <v>-103</v>
+      </c>
+      <c r="W188" t="n">
+        <v>0</v>
+      </c>
+      <c r="X188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1208</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -16135,6 +18965,21 @@
           <t>Proverbs 7</t>
         </is>
       </c>
+      <c r="V189" t="n">
+        <v>-61</v>
+      </c>
+      <c r="W189" t="n">
+        <v>0</v>
+      </c>
+      <c r="X189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1098</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -16220,6 +19065,21 @@
           <t>Proverbs 8</t>
         </is>
       </c>
+      <c r="V190" t="n">
+        <v>-97</v>
+      </c>
+      <c r="W190" t="n">
+        <v>0</v>
+      </c>
+      <c r="X190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1371</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -16305,6 +19165,21 @@
           <t>Proverbs 8</t>
         </is>
       </c>
+      <c r="V191" t="n">
+        <v>-104</v>
+      </c>
+      <c r="W191" t="n">
+        <v>0</v>
+      </c>
+      <c r="X191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1026</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -16390,6 +19265,21 @@
           <t>Proverbs 9</t>
         </is>
       </c>
+      <c r="V192" t="n">
+        <v>-70</v>
+      </c>
+      <c r="W192" t="n">
+        <v>0</v>
+      </c>
+      <c r="X192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1117</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -16475,6 +19365,21 @@
           <t>Proverbs 9</t>
         </is>
       </c>
+      <c r="V193" t="n">
+        <v>-86</v>
+      </c>
+      <c r="W193" t="n">
+        <v>0</v>
+      </c>
+      <c r="X193" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1626</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -16560,6 +19465,21 @@
           <t>Proverbs 9</t>
         </is>
       </c>
+      <c r="V194" t="n">
+        <v>-79</v>
+      </c>
+      <c r="W194" t="n">
+        <v>0</v>
+      </c>
+      <c r="X194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1499</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -16645,6 +19565,21 @@
           <t>Proverbs 10</t>
         </is>
       </c>
+      <c r="V195" t="n">
+        <v>-79</v>
+      </c>
+      <c r="W195" t="n">
+        <v>0</v>
+      </c>
+      <c r="X195" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>1462</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -16730,6 +19665,21 @@
           <t>Proverbs 10</t>
         </is>
       </c>
+      <c r="V196" t="n">
+        <v>-61</v>
+      </c>
+      <c r="W196" t="n">
+        <v>0</v>
+      </c>
+      <c r="X196" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>1493</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -16815,6 +19765,21 @@
           <t>Proverbs 10</t>
         </is>
       </c>
+      <c r="V197" t="n">
+        <v>-63</v>
+      </c>
+      <c r="W197" t="n">
+        <v>0</v>
+      </c>
+      <c r="X197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1594</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -16900,6 +19865,21 @@
           <t>Proverbs 10</t>
         </is>
       </c>
+      <c r="V198" t="n">
+        <v>-75</v>
+      </c>
+      <c r="W198" t="n">
+        <v>0</v>
+      </c>
+      <c r="X198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1415</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -16985,6 +19965,21 @@
           <t>Proverbs 10</t>
         </is>
       </c>
+      <c r="V199" t="n">
+        <v>-101</v>
+      </c>
+      <c r="W199" t="n">
+        <v>0</v>
+      </c>
+      <c r="X199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1584</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -17070,6 +20065,21 @@
           <t>Proverbs 10</t>
         </is>
       </c>
+      <c r="V200" t="n">
+        <v>-84</v>
+      </c>
+      <c r="W200" t="n">
+        <v>0</v>
+      </c>
+      <c r="X200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1147</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -17155,6 +20165,21 @@
           <t>Proverbs 10</t>
         </is>
       </c>
+      <c r="V201" t="n">
+        <v>-107</v>
+      </c>
+      <c r="W201" t="n">
+        <v>0</v>
+      </c>
+      <c r="X201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1252</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -17240,6 +20265,21 @@
           <t>Proverbs 10</t>
         </is>
       </c>
+      <c r="V202" t="n">
+        <v>0</v>
+      </c>
+      <c r="W202" t="n">
+        <v>0</v>
+      </c>
+      <c r="X202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1443</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -17325,6 +20365,21 @@
           <t>Proverbs 11</t>
         </is>
       </c>
+      <c r="V203" t="n">
+        <v>333</v>
+      </c>
+      <c r="W203" t="n">
+        <v>303</v>
+      </c>
+      <c r="X203" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>57</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>551</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -17410,6 +20465,21 @@
           <t>Proverbs 11</t>
         </is>
       </c>
+      <c r="V204" t="n">
+        <v>404</v>
+      </c>
+      <c r="W204" t="n">
+        <v>155</v>
+      </c>
+      <c r="X204" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>54</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>434</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -17495,6 +20565,21 @@
           <t>Proverbs 11</t>
         </is>
       </c>
+      <c r="V205" t="n">
+        <v>489</v>
+      </c>
+      <c r="W205" t="n">
+        <v>316</v>
+      </c>
+      <c r="X205" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>79</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -17580,6 +20665,21 @@
           <t>Proverbs 11</t>
         </is>
       </c>
+      <c r="V206" t="n">
+        <v>427</v>
+      </c>
+      <c r="W206" t="n">
+        <v>207</v>
+      </c>
+      <c r="X206" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>47</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>835</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -17665,6 +20765,21 @@
           <t>Proverbs 11</t>
         </is>
       </c>
+      <c r="V207" t="n">
+        <v>0</v>
+      </c>
+      <c r="W207" t="n">
+        <v>0</v>
+      </c>
+      <c r="X207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>1524</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -17750,6 +20865,21 @@
           <t>Proverbs 11</t>
         </is>
       </c>
+      <c r="V208" t="n">
+        <v>0</v>
+      </c>
+      <c r="W208" t="n">
+        <v>0</v>
+      </c>
+      <c r="X208" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1706</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -17835,6 +20965,21 @@
           <t>Proverbs 11</t>
         </is>
       </c>
+      <c r="V209" t="n">
+        <v>0</v>
+      </c>
+      <c r="W209" t="n">
+        <v>0</v>
+      </c>
+      <c r="X209" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>1547</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -17920,6 +21065,21 @@
           <t>Proverbs 11</t>
         </is>
       </c>
+      <c r="V210" t="n">
+        <v>0</v>
+      </c>
+      <c r="W210" t="n">
+        <v>0</v>
+      </c>
+      <c r="X210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>1394</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -18005,6 +21165,21 @@
           <t>Proverbs 12</t>
         </is>
       </c>
+      <c r="V211" t="n">
+        <v>0</v>
+      </c>
+      <c r="W211" t="n">
+        <v>0</v>
+      </c>
+      <c r="X211" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>1589</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -18090,6 +21265,21 @@
           <t>Proverbs 12</t>
         </is>
       </c>
+      <c r="V212" t="n">
+        <v>0</v>
+      </c>
+      <c r="W212" t="n">
+        <v>0</v>
+      </c>
+      <c r="X212" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>1399</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -18175,6 +21365,21 @@
           <t>Proverbs 12</t>
         </is>
       </c>
+      <c r="V213" t="n">
+        <v>0</v>
+      </c>
+      <c r="W213" t="n">
+        <v>0</v>
+      </c>
+      <c r="X213" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>1407</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -18260,6 +21465,21 @@
           <t>Proverbs 12</t>
         </is>
       </c>
+      <c r="V214" t="n">
+        <v>0</v>
+      </c>
+      <c r="W214" t="n">
+        <v>0</v>
+      </c>
+      <c r="X214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>1185</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -18345,6 +21565,21 @@
           <t>Proverbs 12</t>
         </is>
       </c>
+      <c r="V215" t="n">
+        <v>0</v>
+      </c>
+      <c r="W215" t="n">
+        <v>0</v>
+      </c>
+      <c r="X215" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>1416</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -18430,6 +21665,21 @@
           <t>Proverbs 12</t>
         </is>
       </c>
+      <c r="V216" t="n">
+        <v>0</v>
+      </c>
+      <c r="W216" t="n">
+        <v>0</v>
+      </c>
+      <c r="X216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>1513</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -18515,6 +21765,21 @@
           <t>Proverbs 12</t>
         </is>
       </c>
+      <c r="V217" t="n">
+        <v>0</v>
+      </c>
+      <c r="W217" t="n">
+        <v>0</v>
+      </c>
+      <c r="X217" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>1268</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -18600,6 +21865,21 @@
           <t>Proverbs 13</t>
         </is>
       </c>
+      <c r="V218" t="n">
+        <v>0</v>
+      </c>
+      <c r="W218" t="n">
+        <v>0</v>
+      </c>
+      <c r="X218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>1567</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -18685,6 +21965,21 @@
           <t>Proverbs 13</t>
         </is>
       </c>
+      <c r="V219" t="n">
+        <v>0</v>
+      </c>
+      <c r="W219" t="n">
+        <v>0</v>
+      </c>
+      <c r="X219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>1701</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -18770,6 +22065,21 @@
           <t>Proverbs 13</t>
         </is>
       </c>
+      <c r="V220" t="n">
+        <v>0</v>
+      </c>
+      <c r="W220" t="n">
+        <v>0</v>
+      </c>
+      <c r="X220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>1261</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -18855,6 +22165,21 @@
           <t>Proverbs 13</t>
         </is>
       </c>
+      <c r="V221" t="n">
+        <v>0</v>
+      </c>
+      <c r="W221" t="n">
+        <v>0</v>
+      </c>
+      <c r="X221" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>1418</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -18940,6 +22265,21 @@
           <t>Proverbs 13</t>
         </is>
       </c>
+      <c r="V222" t="n">
+        <v>0</v>
+      </c>
+      <c r="W222" t="n">
+        <v>0</v>
+      </c>
+      <c r="X222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>1589</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -19025,6 +22365,21 @@
           <t>Proverbs 13</t>
         </is>
       </c>
+      <c r="V223" t="n">
+        <v>0</v>
+      </c>
+      <c r="W223" t="n">
+        <v>0</v>
+      </c>
+      <c r="X223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>1721</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -19110,6 +22465,21 @@
           <t>Proverbs 14</t>
         </is>
       </c>
+      <c r="V224" t="n">
+        <v>0</v>
+      </c>
+      <c r="W224" t="n">
+        <v>0</v>
+      </c>
+      <c r="X224" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>1180</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -19195,6 +22565,21 @@
           <t>Proverbs 14</t>
         </is>
       </c>
+      <c r="V225" t="n">
+        <v>157</v>
+      </c>
+      <c r="W225" t="n">
+        <v>266</v>
+      </c>
+      <c r="X225" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>79</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>566</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -19280,6 +22665,21 @@
           <t>Proverbs 14</t>
         </is>
       </c>
+      <c r="V226" t="n">
+        <v>323</v>
+      </c>
+      <c r="W226" t="n">
+        <v>243</v>
+      </c>
+      <c r="X226" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>61</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>789</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -19365,6 +22765,21 @@
           <t>Proverbs 14</t>
         </is>
       </c>
+      <c r="V227" t="n">
+        <v>248</v>
+      </c>
+      <c r="W227" t="n">
+        <v>432</v>
+      </c>
+      <c r="X227" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>580</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -19450,6 +22865,21 @@
           <t>Proverbs 14</t>
         </is>
       </c>
+      <c r="V228" t="n">
+        <v>279</v>
+      </c>
+      <c r="W228" t="n">
+        <v>483</v>
+      </c>
+      <c r="X228" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>49</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>533</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -19535,6 +22965,21 @@
           <t>Proverbs 14</t>
         </is>
       </c>
+      <c r="V229" t="n">
+        <v>281</v>
+      </c>
+      <c r="W229" t="n">
+        <v>324</v>
+      </c>
+      <c r="X229" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>53</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>805</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -19620,6 +23065,21 @@
           <t>Proverbs 14</t>
         </is>
       </c>
+      <c r="V230" t="n">
+        <v>284</v>
+      </c>
+      <c r="W230" t="n">
+        <v>419</v>
+      </c>
+      <c r="X230" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>696</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -19705,6 +23165,21 @@
           <t>Proverbs 14</t>
         </is>
       </c>
+      <c r="V231" t="n">
+        <v>293</v>
+      </c>
+      <c r="W231" t="n">
+        <v>363</v>
+      </c>
+      <c r="X231" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>64</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>710</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -19790,6 +23265,21 @@
           <t>Proverbs 14</t>
         </is>
       </c>
+      <c r="V232" t="n">
+        <v>216</v>
+      </c>
+      <c r="W232" t="n">
+        <v>486</v>
+      </c>
+      <c r="X232" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>63</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>574</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -19875,6 +23365,21 @@
           <t>Proverbs 15</t>
         </is>
       </c>
+      <c r="V233" t="n">
+        <v>245</v>
+      </c>
+      <c r="W233" t="n">
+        <v>270</v>
+      </c>
+      <c r="X233" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>551</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -19960,6 +23465,21 @@
           <t>Proverbs 15</t>
         </is>
       </c>
+      <c r="V234" t="n">
+        <v>419</v>
+      </c>
+      <c r="W234" t="n">
+        <v>418</v>
+      </c>
+      <c r="X234" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>49</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>509</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -20045,6 +23565,21 @@
           <t>Proverbs 15</t>
         </is>
       </c>
+      <c r="V235" t="n">
+        <v>382</v>
+      </c>
+      <c r="W235" t="n">
+        <v>364</v>
+      </c>
+      <c r="X235" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>478</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -20130,6 +23665,21 @@
           <t>Proverbs 15</t>
         </is>
       </c>
+      <c r="V236" t="n">
+        <v>434</v>
+      </c>
+      <c r="W236" t="n">
+        <v>543</v>
+      </c>
+      <c r="X236" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>522</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -20215,6 +23765,21 @@
           <t>Proverbs 15</t>
         </is>
       </c>
+      <c r="V237" t="n">
+        <v>466</v>
+      </c>
+      <c r="W237" t="n">
+        <v>514</v>
+      </c>
+      <c r="X237" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>84</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>580</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -20300,6 +23865,21 @@
           <t>Proverbs 15</t>
         </is>
       </c>
+      <c r="V238" t="n">
+        <v>354</v>
+      </c>
+      <c r="W238" t="n">
+        <v>528</v>
+      </c>
+      <c r="X238" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>39</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>605</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -20385,6 +23965,21 @@
           <t>Proverbs 15</t>
         </is>
       </c>
+      <c r="V239" t="n">
+        <v>333</v>
+      </c>
+      <c r="W239" t="n">
+        <v>615</v>
+      </c>
+      <c r="X239" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>653</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -20470,6 +24065,21 @@
           <t>Proverbs 15</t>
         </is>
       </c>
+      <c r="V240" t="n">
+        <v>274</v>
+      </c>
+      <c r="W240" t="n">
+        <v>765</v>
+      </c>
+      <c r="X240" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>545</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -20555,6 +24165,21 @@
           <t>Proverbs 16</t>
         </is>
       </c>
+      <c r="V241" t="n">
+        <v>379</v>
+      </c>
+      <c r="W241" t="n">
+        <v>694</v>
+      </c>
+      <c r="X241" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>61</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>341</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -20640,6 +24265,21 @@
           <t>Proverbs 16</t>
         </is>
       </c>
+      <c r="V242" t="n">
+        <v>413</v>
+      </c>
+      <c r="W242" t="n">
+        <v>555</v>
+      </c>
+      <c r="X242" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>630</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -20725,6 +24365,21 @@
           <t>Proverbs 16</t>
         </is>
       </c>
+      <c r="V243" t="n">
+        <v>437</v>
+      </c>
+      <c r="W243" t="n">
+        <v>583</v>
+      </c>
+      <c r="X243" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>56</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>532</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -20810,6 +24465,21 @@
           <t>Proverbs 16</t>
         </is>
       </c>
+      <c r="V244" t="n">
+        <v>440</v>
+      </c>
+      <c r="W244" t="n">
+        <v>619</v>
+      </c>
+      <c r="X244" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>790</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -20895,6 +24565,21 @@
           <t>Proverbs 16</t>
         </is>
       </c>
+      <c r="V245" t="n">
+        <v>222</v>
+      </c>
+      <c r="W245" t="n">
+        <v>542</v>
+      </c>
+      <c r="X245" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>39</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>687</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -20980,6 +24665,21 @@
           <t>Proverbs 16</t>
         </is>
       </c>
+      <c r="V246" t="n">
+        <v>407</v>
+      </c>
+      <c r="W246" t="n">
+        <v>316</v>
+      </c>
+      <c r="X246" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>448</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -21065,6 +24765,21 @@
           <t>Proverbs 16</t>
         </is>
       </c>
+      <c r="V247" t="n">
+        <v>399</v>
+      </c>
+      <c r="W247" t="n">
+        <v>395</v>
+      </c>
+      <c r="X247" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>700</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -21086,10 +24801,10 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F248" t="n">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -21097,10 +24812,10 @@
         </is>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>541</v>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
+        <v>975</v>
       </c>
       <c r="J248" t="inlineStr">
         <is>
@@ -21108,19 +24823,19 @@
         </is>
       </c>
       <c r="K248" t="n">
-        <v>0</v>
+        <v>977</v>
       </c>
       <c r="L248" t="n">
-        <v>0</v>
+        <v>1013</v>
       </c>
       <c r="M248" t="n">
-        <v>0</v>
+        <v>1015</v>
       </c>
       <c r="N248" t="n">
-        <v>0</v>
+        <v>1038</v>
       </c>
       <c r="O248" t="n">
-        <v>0</v>
+        <v>1039</v>
       </c>
       <c r="P248" t="n">
         <v>1608</v>
@@ -21149,6 +24864,21 @@
         <is>
           <t>Proverbs 16</t>
         </is>
+      </c>
+      <c r="V248" t="n">
+        <v>474</v>
+      </c>
+      <c r="W248" t="n">
+        <v>434</v>
+      </c>
+      <c r="X248" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>569</v>
       </c>
     </row>
     <row r="249">
@@ -21171,10 +24901,10 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F249" t="n">
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -21182,10 +24912,10 @@
         </is>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
+        <v>1061</v>
       </c>
       <c r="J249" t="inlineStr">
         <is>
@@ -21193,19 +24923,19 @@
         </is>
       </c>
       <c r="K249" t="n">
-        <v>0</v>
+        <v>1063</v>
       </c>
       <c r="L249" t="n">
-        <v>0</v>
+        <v>1095</v>
       </c>
       <c r="M249" t="n">
-        <v>0</v>
+        <v>1097</v>
       </c>
       <c r="N249" t="n">
-        <v>0</v>
+        <v>1141</v>
       </c>
       <c r="O249" t="n">
-        <v>0</v>
+        <v>1142</v>
       </c>
       <c r="P249" t="n">
         <v>1748</v>
@@ -21234,6 +24964,21 @@
         <is>
           <t>Proverbs 17</t>
         </is>
+      </c>
+      <c r="V249" t="n">
+        <v>493</v>
+      </c>
+      <c r="W249" t="n">
+        <v>494</v>
+      </c>
+      <c r="X249" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>606</v>
       </c>
     </row>
     <row r="250">
@@ -21256,10 +25001,10 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F250" t="n">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -21267,10 +25012,10 @@
         </is>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>522</v>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
+        <v>1052</v>
       </c>
       <c r="J250" t="inlineStr">
         <is>
@@ -21278,19 +25023,19 @@
         </is>
       </c>
       <c r="K250" t="n">
-        <v>0</v>
+        <v>1054</v>
       </c>
       <c r="L250" t="n">
-        <v>0</v>
+        <v>1087</v>
       </c>
       <c r="M250" t="n">
-        <v>0</v>
+        <v>1089</v>
       </c>
       <c r="N250" t="n">
-        <v>0</v>
+        <v>1151</v>
       </c>
       <c r="O250" t="n">
-        <v>0</v>
+        <v>1152</v>
       </c>
       <c r="P250" t="n">
         <v>1778</v>
@@ -21319,6 +25064,21 @@
         <is>
           <t>Proverbs 17</t>
         </is>
+      </c>
+      <c r="V250" t="n">
+        <v>462</v>
+      </c>
+      <c r="W250" t="n">
+        <v>530</v>
+      </c>
+      <c r="X250" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>62</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>626</v>
       </c>
     </row>
     <row r="251">
@@ -21341,10 +25101,10 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="F251" t="n">
-        <v>0</v>
+        <v>438</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -21352,10 +25112,10 @@
         </is>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="I251" t="n">
-        <v>0</v>
+        <v>910</v>
       </c>
       <c r="J251" t="inlineStr">
         <is>
@@ -21363,19 +25123,19 @@
         </is>
       </c>
       <c r="K251" t="n">
-        <v>0</v>
+        <v>912</v>
       </c>
       <c r="L251" t="n">
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="M251" t="n">
-        <v>0</v>
+        <v>944</v>
       </c>
       <c r="N251" t="n">
-        <v>0</v>
+        <v>987</v>
       </c>
       <c r="O251" t="n">
-        <v>0</v>
+        <v>988</v>
       </c>
       <c r="P251" t="n">
         <v>1657</v>
@@ -21404,6 +25164,21 @@
         <is>
           <t>Proverbs 17</t>
         </is>
+      </c>
+      <c r="V251" t="n">
+        <v>361</v>
+      </c>
+      <c r="W251" t="n">
+        <v>470</v>
+      </c>
+      <c r="X251" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>43</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>669</v>
       </c>
     </row>
     <row r="252">
@@ -21426,10 +25201,10 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="F252" t="n">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -21437,10 +25212,10 @@
         </is>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>471</v>
       </c>
       <c r="I252" t="n">
-        <v>0</v>
+        <v>1032</v>
       </c>
       <c r="J252" t="inlineStr">
         <is>
@@ -21448,19 +25223,19 @@
         </is>
       </c>
       <c r="K252" t="n">
-        <v>0</v>
+        <v>1034</v>
       </c>
       <c r="L252" t="n">
-        <v>0</v>
+        <v>1064</v>
       </c>
       <c r="M252" t="n">
-        <v>0</v>
+        <v>1066</v>
       </c>
       <c r="N252" t="n">
-        <v>0</v>
+        <v>1097</v>
       </c>
       <c r="O252" t="n">
-        <v>0</v>
+        <v>1098</v>
       </c>
       <c r="P252" t="n">
         <v>1649</v>
@@ -21489,6 +25264,21 @@
         <is>
           <t>Proverbs 17</t>
         </is>
+      </c>
+      <c r="V252" t="n">
+        <v>390</v>
+      </c>
+      <c r="W252" t="n">
+        <v>561</v>
+      </c>
+      <c r="X252" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>551</v>
       </c>
     </row>
     <row r="253">
@@ -21511,10 +25301,10 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="F253" t="n">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -21522,10 +25312,10 @@
         </is>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>548</v>
       </c>
       <c r="I253" t="n">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="J253" t="inlineStr">
         <is>
@@ -21533,19 +25323,19 @@
         </is>
       </c>
       <c r="K253" t="n">
-        <v>0</v>
+        <v>922</v>
       </c>
       <c r="L253" t="n">
-        <v>0</v>
+        <v>952</v>
       </c>
       <c r="M253" t="n">
-        <v>0</v>
+        <v>954</v>
       </c>
       <c r="N253" t="n">
-        <v>0</v>
+        <v>1012</v>
       </c>
       <c r="O253" t="n">
-        <v>0</v>
+        <v>1013</v>
       </c>
       <c r="P253" t="n">
         <v>1543</v>
@@ -21574,6 +25364,21 @@
         <is>
           <t>Proverbs 17</t>
         </is>
+      </c>
+      <c r="V253" t="n">
+        <v>470</v>
+      </c>
+      <c r="W253" t="n">
+        <v>372</v>
+      </c>
+      <c r="X253" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>58</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>530</v>
       </c>
     </row>
     <row r="254">
@@ -21596,10 +25401,10 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="F254" t="n">
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -21607,10 +25412,10 @@
         </is>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="J254" t="inlineStr">
         <is>
@@ -21618,19 +25423,19 @@
         </is>
       </c>
       <c r="K254" t="n">
-        <v>0</v>
+        <v>722</v>
       </c>
       <c r="L254" t="n">
-        <v>0</v>
+        <v>778</v>
       </c>
       <c r="M254" t="n">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="N254" t="n">
-        <v>0</v>
+        <v>824</v>
       </c>
       <c r="O254" t="n">
-        <v>0</v>
+        <v>825</v>
       </c>
       <c r="P254" t="n">
         <v>1468</v>
@@ -21659,6 +25464,21 @@
         <is>
           <t>Proverbs 17</t>
         </is>
+      </c>
+      <c r="V254" t="n">
+        <v>317</v>
+      </c>
+      <c r="W254" t="n">
+        <v>270</v>
+      </c>
+      <c r="X254" t="n">
+        <v>56</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>643</v>
       </c>
     </row>
     <row r="255">
@@ -21681,10 +25501,10 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="F255" t="n">
-        <v>0</v>
+        <v>534</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -21692,10 +25512,10 @@
         </is>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="I255" t="n">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="J255" t="inlineStr">
         <is>
@@ -21703,19 +25523,19 @@
         </is>
       </c>
       <c r="K255" t="n">
-        <v>0</v>
+        <v>817</v>
       </c>
       <c r="L255" t="n">
-        <v>0</v>
+        <v>846</v>
       </c>
       <c r="M255" t="n">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="N255" t="n">
-        <v>0</v>
+        <v>893</v>
       </c>
       <c r="O255" t="n">
-        <v>0</v>
+        <v>894</v>
       </c>
       <c r="P255" t="n">
         <v>1288</v>
@@ -21744,6 +25564,21 @@
         <is>
           <t>Proverbs 18</t>
         </is>
+      </c>
+      <c r="V255" t="n">
+        <v>470</v>
+      </c>
+      <c r="W255" t="n">
+        <v>279</v>
+      </c>
+      <c r="X255" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y255" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z255" t="n">
+        <v>394</v>
       </c>
     </row>
     <row r="256">
@@ -21766,10 +25601,10 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>931</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -21777,10 +25612,10 @@
         </is>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>933</v>
       </c>
       <c r="I256" t="n">
-        <v>0</v>
+        <v>1223</v>
       </c>
       <c r="J256" t="inlineStr">
         <is>
@@ -21788,19 +25623,19 @@
         </is>
       </c>
       <c r="K256" t="n">
-        <v>0</v>
+        <v>1225</v>
       </c>
       <c r="L256" t="n">
-        <v>0</v>
+        <v>1254</v>
       </c>
       <c r="M256" t="n">
-        <v>0</v>
+        <v>1256</v>
       </c>
       <c r="N256" t="n">
-        <v>0</v>
+        <v>1324</v>
       </c>
       <c r="O256" t="n">
-        <v>0</v>
+        <v>1325</v>
       </c>
       <c r="P256" t="n">
         <v>1776</v>
@@ -21829,6 +25664,21 @@
         <is>
           <t>Proverbs 18</t>
         </is>
+      </c>
+      <c r="V256" t="n">
+        <v>854</v>
+      </c>
+      <c r="W256" t="n">
+        <v>290</v>
+      </c>
+      <c r="X256" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y256" t="n">
+        <v>68</v>
+      </c>
+      <c r="Z256" t="n">
+        <v>451</v>
       </c>
     </row>
     <row r="257">
@@ -21851,10 +25701,10 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="F257" t="n">
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -21862,10 +25712,10 @@
         </is>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="I257" t="n">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="J257" t="inlineStr">
         <is>
@@ -21873,19 +25723,19 @@
         </is>
       </c>
       <c r="K257" t="n">
-        <v>0</v>
+        <v>1004</v>
       </c>
       <c r="L257" t="n">
-        <v>0</v>
+        <v>1033</v>
       </c>
       <c r="M257" t="n">
-        <v>0</v>
+        <v>1035</v>
       </c>
       <c r="N257" t="n">
-        <v>0</v>
+        <v>1103</v>
       </c>
       <c r="O257" t="n">
-        <v>0</v>
+        <v>1104</v>
       </c>
       <c r="P257" t="n">
         <v>1577</v>
@@ -21914,6 +25764,21 @@
         <is>
           <t>Proverbs 18</t>
         </is>
+      </c>
+      <c r="V257" t="n">
+        <v>602</v>
+      </c>
+      <c r="W257" t="n">
+        <v>322</v>
+      </c>
+      <c r="X257" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y257" t="n">
+        <v>68</v>
+      </c>
+      <c r="Z257" t="n">
+        <v>473</v>
       </c>
     </row>
     <row r="258">
@@ -21936,10 +25801,10 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="F258" t="n">
-        <v>0</v>
+        <v>389</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -21947,10 +25812,10 @@
         </is>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
+        <v>593</v>
       </c>
       <c r="J258" t="inlineStr">
         <is>
@@ -21958,19 +25823,19 @@
         </is>
       </c>
       <c r="K258" t="n">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="L258" t="n">
-        <v>0</v>
+        <v>622</v>
       </c>
       <c r="M258" t="n">
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="N258" t="n">
-        <v>0</v>
+        <v>664</v>
       </c>
       <c r="O258" t="n">
-        <v>0</v>
+        <v>665</v>
       </c>
       <c r="P258" t="n">
         <v>1265</v>
@@ -21999,6 +25864,21 @@
         <is>
           <t>Proverbs 18</t>
         </is>
+      </c>
+      <c r="V258" t="n">
+        <v>0</v>
+      </c>
+      <c r="W258" t="n">
+        <v>0</v>
+      </c>
+      <c r="X258" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y258" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z258" t="n">
+        <v>1265</v>
       </c>
     </row>
     <row r="259">
@@ -22077,6 +25957,21 @@
           <t>Proverbs 18</t>
         </is>
       </c>
+      <c r="V259" t="n">
+        <v>0</v>
+      </c>
+      <c r="W259" t="n">
+        <v>0</v>
+      </c>
+      <c r="X259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z259" t="n">
+        <v>1483</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -22154,6 +26049,21 @@
           <t>Proverbs 18</t>
         </is>
       </c>
+      <c r="V260" t="n">
+        <v>0</v>
+      </c>
+      <c r="W260" t="n">
+        <v>0</v>
+      </c>
+      <c r="X260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z260" t="n">
+        <v>1653</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -22231,6 +26141,21 @@
           <t>Proverbs 19</t>
         </is>
       </c>
+      <c r="V261" t="n">
+        <v>0</v>
+      </c>
+      <c r="W261" t="n">
+        <v>0</v>
+      </c>
+      <c r="X261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>1501</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -22308,6 +26233,21 @@
           <t>Proverbs 19</t>
         </is>
       </c>
+      <c r="V262" t="n">
+        <v>0</v>
+      </c>
+      <c r="W262" t="n">
+        <v>0</v>
+      </c>
+      <c r="X262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>1772</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -22385,6 +26325,21 @@
           <t>Proverbs 19</t>
         </is>
       </c>
+      <c r="V263" t="n">
+        <v>0</v>
+      </c>
+      <c r="W263" t="n">
+        <v>0</v>
+      </c>
+      <c r="X263" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y263" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z263" t="n">
+        <v>1686</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -22462,6 +26417,21 @@
           <t>Proverbs 19</t>
         </is>
       </c>
+      <c r="V264" t="n">
+        <v>0</v>
+      </c>
+      <c r="W264" t="n">
+        <v>0</v>
+      </c>
+      <c r="X264" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z264" t="n">
+        <v>1691</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -22539,6 +26509,21 @@
           <t>Proverbs 19</t>
         </is>
       </c>
+      <c r="V265" t="n">
+        <v>0</v>
+      </c>
+      <c r="W265" t="n">
+        <v>0</v>
+      </c>
+      <c r="X265" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y265" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z265" t="n">
+        <v>1597</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -22616,6 +26601,21 @@
           <t>Proverbs 19</t>
         </is>
       </c>
+      <c r="V266" t="n">
+        <v>0</v>
+      </c>
+      <c r="W266" t="n">
+        <v>0</v>
+      </c>
+      <c r="X266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z266" t="n">
+        <v>1596</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -22693,6 +26693,21 @@
           <t>Proverbs 19</t>
         </is>
       </c>
+      <c r="V267" t="n">
+        <v>0</v>
+      </c>
+      <c r="W267" t="n">
+        <v>0</v>
+      </c>
+      <c r="X267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z267" t="n">
+        <v>1400</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -22778,6 +26793,21 @@
           <t>Proverbs 20</t>
         </is>
       </c>
+      <c r="V268" t="n">
+        <v>0</v>
+      </c>
+      <c r="W268" t="n">
+        <v>0</v>
+      </c>
+      <c r="X268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z268" t="n">
+        <v>1343</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -22863,6 +26893,21 @@
           <t>Proverbs 20</t>
         </is>
       </c>
+      <c r="V269" t="n">
+        <v>0</v>
+      </c>
+      <c r="W269" t="n">
+        <v>0</v>
+      </c>
+      <c r="X269" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y269" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z269" t="n">
+        <v>1728</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -22948,6 +26993,21 @@
           <t>Proverbs 20</t>
         </is>
       </c>
+      <c r="V270" t="n">
+        <v>0</v>
+      </c>
+      <c r="W270" t="n">
+        <v>0</v>
+      </c>
+      <c r="X270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z270" t="n">
+        <v>1386</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -23033,6 +27093,21 @@
           <t>Proverbs 20</t>
         </is>
       </c>
+      <c r="V271" t="n">
+        <v>0</v>
+      </c>
+      <c r="W271" t="n">
+        <v>0</v>
+      </c>
+      <c r="X271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z271" t="n">
+        <v>1619</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -23118,6 +27193,21 @@
           <t>Proverbs 20</t>
         </is>
       </c>
+      <c r="V272" t="n">
+        <v>0</v>
+      </c>
+      <c r="W272" t="n">
+        <v>0</v>
+      </c>
+      <c r="X272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>1757</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -23203,6 +27293,21 @@
           <t>Proverbs 20</t>
         </is>
       </c>
+      <c r="V273" t="n">
+        <v>0</v>
+      </c>
+      <c r="W273" t="n">
+        <v>0</v>
+      </c>
+      <c r="X273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z273" t="n">
+        <v>1653</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -23288,6 +27393,21 @@
           <t>Proverbs 20</t>
         </is>
       </c>
+      <c r="V274" t="n">
+        <v>0</v>
+      </c>
+      <c r="W274" t="n">
+        <v>0</v>
+      </c>
+      <c r="X274" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y274" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z274" t="n">
+        <v>1408</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -23373,6 +27493,21 @@
           <t>Proverbs 20</t>
         </is>
       </c>
+      <c r="V275" t="n">
+        <v>0</v>
+      </c>
+      <c r="W275" t="n">
+        <v>0</v>
+      </c>
+      <c r="X275" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y275" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z275" t="n">
+        <v>1287</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -23458,6 +27593,21 @@
           <t>Proverbs 21</t>
         </is>
       </c>
+      <c r="V276" t="n">
+        <v>0</v>
+      </c>
+      <c r="W276" t="n">
+        <v>0</v>
+      </c>
+      <c r="X276" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y276" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z276" t="n">
+        <v>1601</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -23543,6 +27693,21 @@
           <t>Proverbs 21</t>
         </is>
       </c>
+      <c r="V277" t="n">
+        <v>0</v>
+      </c>
+      <c r="W277" t="n">
+        <v>0</v>
+      </c>
+      <c r="X277" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>1105</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -23628,6 +27793,21 @@
           <t>Proverbs 21</t>
         </is>
       </c>
+      <c r="V278" t="n">
+        <v>0</v>
+      </c>
+      <c r="W278" t="n">
+        <v>0</v>
+      </c>
+      <c r="X278" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>1663</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -23713,6 +27893,21 @@
           <t>Proverbs 21</t>
         </is>
       </c>
+      <c r="V279" t="n">
+        <v>0</v>
+      </c>
+      <c r="W279" t="n">
+        <v>0</v>
+      </c>
+      <c r="X279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z279" t="n">
+        <v>1263</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -23798,6 +27993,21 @@
           <t>Proverbs 21</t>
         </is>
       </c>
+      <c r="V280" t="n">
+        <v>0</v>
+      </c>
+      <c r="W280" t="n">
+        <v>0</v>
+      </c>
+      <c r="X280" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y280" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z280" t="n">
+        <v>1180</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -23883,6 +28093,21 @@
           <t>Proverbs 21</t>
         </is>
       </c>
+      <c r="V281" t="n">
+        <v>0</v>
+      </c>
+      <c r="W281" t="n">
+        <v>0</v>
+      </c>
+      <c r="X281" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y281" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z281" t="n">
+        <v>1390</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -23968,6 +28193,21 @@
           <t>Proverbs 21</t>
         </is>
       </c>
+      <c r="V282" t="n">
+        <v>0</v>
+      </c>
+      <c r="W282" t="n">
+        <v>0</v>
+      </c>
+      <c r="X282" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y282" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z282" t="n">
+        <v>1617</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -24053,6 +28293,21 @@
           <t>Proverbs 21</t>
         </is>
       </c>
+      <c r="V283" t="n">
+        <v>417</v>
+      </c>
+      <c r="W283" t="n">
+        <v>592</v>
+      </c>
+      <c r="X283" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y283" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z283" t="n">
+        <v>710</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -24138,6 +28393,21 @@
           <t>Proverbs 22</t>
         </is>
       </c>
+      <c r="V284" t="n">
+        <v>435</v>
+      </c>
+      <c r="W284" t="n">
+        <v>491</v>
+      </c>
+      <c r="X284" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y284" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z284" t="n">
+        <v>509</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -24223,6 +28493,21 @@
           <t>Proverbs 22</t>
         </is>
       </c>
+      <c r="V285" t="n">
+        <v>426</v>
+      </c>
+      <c r="W285" t="n">
+        <v>461</v>
+      </c>
+      <c r="X285" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y285" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z285" t="n">
+        <v>599</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -24308,6 +28593,21 @@
           <t>Proverbs 22</t>
         </is>
       </c>
+      <c r="V286" t="n">
+        <v>406</v>
+      </c>
+      <c r="W286" t="n">
+        <v>541</v>
+      </c>
+      <c r="X286" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y286" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z286" t="n">
+        <v>601</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -24393,6 +28693,21 @@
           <t>Proverbs 22</t>
         </is>
       </c>
+      <c r="V287" t="n">
+        <v>519</v>
+      </c>
+      <c r="W287" t="n">
+        <v>475</v>
+      </c>
+      <c r="X287" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y287" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z287" t="n">
+        <v>476</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -24478,6 +28793,21 @@
           <t>Proverbs 22</t>
         </is>
       </c>
+      <c r="V288" t="n">
+        <v>469</v>
+      </c>
+      <c r="W288" t="n">
+        <v>527</v>
+      </c>
+      <c r="X288" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y288" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z288" t="n">
+        <v>571</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -24563,6 +28893,21 @@
           <t>Proverbs 22</t>
         </is>
       </c>
+      <c r="V289" t="n">
+        <v>362</v>
+      </c>
+      <c r="W289" t="n">
+        <v>510</v>
+      </c>
+      <c r="X289" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y289" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z289" t="n">
+        <v>424</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -24648,6 +28993,21 @@
           <t>Proverbs 22</t>
         </is>
       </c>
+      <c r="V290" t="n">
+        <v>262</v>
+      </c>
+      <c r="W290" t="n">
+        <v>421</v>
+      </c>
+      <c r="X290" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y290" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z290" t="n">
+        <v>674</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -24733,6 +29093,21 @@
           <t>Proverbs 23</t>
         </is>
       </c>
+      <c r="V291" t="n">
+        <v>506</v>
+      </c>
+      <c r="W291" t="n">
+        <v>396</v>
+      </c>
+      <c r="X291" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y291" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z291" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -24818,6 +29193,21 @@
           <t>Proverbs 23</t>
         </is>
       </c>
+      <c r="V292" t="n">
+        <v>664</v>
+      </c>
+      <c r="W292" t="n">
+        <v>392</v>
+      </c>
+      <c r="X292" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y292" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z292" t="n">
+        <v>440</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -24903,6 +29293,21 @@
           <t>Proverbs 23</t>
         </is>
       </c>
+      <c r="V293" t="n">
+        <v>565</v>
+      </c>
+      <c r="W293" t="n">
+        <v>355</v>
+      </c>
+      <c r="X293" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y293" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z293" t="n">
+        <v>507</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -24988,6 +29393,21 @@
           <t>Proverbs 23</t>
         </is>
       </c>
+      <c r="V294" t="n">
+        <v>379</v>
+      </c>
+      <c r="W294" t="n">
+        <v>356</v>
+      </c>
+      <c r="X294" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y294" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z294" t="n">
+        <v>689</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -25073,6 +29493,21 @@
           <t>Proverbs 23</t>
         </is>
       </c>
+      <c r="V295" t="n">
+        <v>406</v>
+      </c>
+      <c r="W295" t="n">
+        <v>346</v>
+      </c>
+      <c r="X295" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y295" t="n">
+        <v>39</v>
+      </c>
+      <c r="Z295" t="n">
+        <v>355</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -25158,6 +29593,21 @@
           <t>Proverbs 23</t>
         </is>
       </c>
+      <c r="V296" t="n">
+        <v>392</v>
+      </c>
+      <c r="W296" t="n">
+        <v>310</v>
+      </c>
+      <c r="X296" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y296" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z296" t="n">
+        <v>448</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -25243,6 +29693,21 @@
           <t>Proverbs 23</t>
         </is>
       </c>
+      <c r="V297" t="n">
+        <v>331</v>
+      </c>
+      <c r="W297" t="n">
+        <v>349</v>
+      </c>
+      <c r="X297" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y297" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z297" t="n">
+        <v>384</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -25328,6 +29793,21 @@
           <t>Proverbs 23</t>
         </is>
       </c>
+      <c r="V298" t="n">
+        <v>206</v>
+      </c>
+      <c r="W298" t="n">
+        <v>498</v>
+      </c>
+      <c r="X298" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y298" t="n">
+        <v>43</v>
+      </c>
+      <c r="Z298" t="n">
+        <v>382</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -25413,6 +29893,21 @@
           <t>Proverbs 24</t>
         </is>
       </c>
+      <c r="V299" t="n">
+        <v>297</v>
+      </c>
+      <c r="W299" t="n">
+        <v>373</v>
+      </c>
+      <c r="X299" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y299" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z299" t="n">
+        <v>602</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -25498,6 +29993,21 @@
           <t>Proverbs 24</t>
         </is>
       </c>
+      <c r="V300" t="n">
+        <v>267</v>
+      </c>
+      <c r="W300" t="n">
+        <v>546</v>
+      </c>
+      <c r="X300" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y300" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z300" t="n">
+        <v>379</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -25583,6 +30093,21 @@
           <t>Proverbs 24</t>
         </is>
       </c>
+      <c r="V301" t="n">
+        <v>355</v>
+      </c>
+      <c r="W301" t="n">
+        <v>387</v>
+      </c>
+      <c r="X301" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y301" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z301" t="n">
+        <v>647</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -25668,6 +30193,21 @@
           <t>Proverbs 24</t>
         </is>
       </c>
+      <c r="V302" t="n">
+        <v>473</v>
+      </c>
+      <c r="W302" t="n">
+        <v>450</v>
+      </c>
+      <c r="X302" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y302" t="n">
+        <v>39</v>
+      </c>
+      <c r="Z302" t="n">
+        <v>347</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -25753,6 +30293,21 @@
           <t>Proverbs 24</t>
         </is>
       </c>
+      <c r="V303" t="n">
+        <v>278</v>
+      </c>
+      <c r="W303" t="n">
+        <v>403</v>
+      </c>
+      <c r="X303" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y303" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z303" t="n">
+        <v>351</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -25838,6 +30393,21 @@
           <t>Proverbs 24</t>
         </is>
       </c>
+      <c r="V304" t="n">
+        <v>0</v>
+      </c>
+      <c r="W304" t="n">
+        <v>0</v>
+      </c>
+      <c r="X304" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y304" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z304" t="n">
+        <v>1375</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -25923,6 +30493,21 @@
           <t>Proverbs 24</t>
         </is>
       </c>
+      <c r="V305" t="n">
+        <v>0</v>
+      </c>
+      <c r="W305" t="n">
+        <v>0</v>
+      </c>
+      <c r="X305" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y305" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z305" t="n">
+        <v>1440</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -26008,6 +30593,21 @@
           <t>Proverbs 24</t>
         </is>
       </c>
+      <c r="V306" t="n">
+        <v>0</v>
+      </c>
+      <c r="W306" t="n">
+        <v>0</v>
+      </c>
+      <c r="X306" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y306" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z306" t="n">
+        <v>1248</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -26093,6 +30693,21 @@
           <t>Proverbs 25</t>
         </is>
       </c>
+      <c r="V307" t="n">
+        <v>0</v>
+      </c>
+      <c r="W307" t="n">
+        <v>0</v>
+      </c>
+      <c r="X307" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y307" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z307" t="n">
+        <v>1218</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -26178,6 +30793,21 @@
           <t>Proverbs 25</t>
         </is>
       </c>
+      <c r="V308" t="n">
+        <v>0</v>
+      </c>
+      <c r="W308" t="n">
+        <v>0</v>
+      </c>
+      <c r="X308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z308" t="n">
+        <v>1239</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -26263,6 +30893,21 @@
           <t>Proverbs 25</t>
         </is>
       </c>
+      <c r="V309" t="n">
+        <v>0</v>
+      </c>
+      <c r="W309" t="n">
+        <v>0</v>
+      </c>
+      <c r="X309" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y309" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z309" t="n">
+        <v>1354</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -26348,6 +30993,21 @@
           <t>Proverbs 25</t>
         </is>
       </c>
+      <c r="V310" t="n">
+        <v>0</v>
+      </c>
+      <c r="W310" t="n">
+        <v>0</v>
+      </c>
+      <c r="X310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z310" t="n">
+        <v>1516</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -26433,6 +31093,21 @@
           <t>Proverbs 25</t>
         </is>
       </c>
+      <c r="V311" t="n">
+        <v>0</v>
+      </c>
+      <c r="W311" t="n">
+        <v>0</v>
+      </c>
+      <c r="X311" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y311" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z311" t="n">
+        <v>1263</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -26518,6 +31193,21 @@
           <t>Proverbs 25</t>
         </is>
       </c>
+      <c r="V312" t="n">
+        <v>0</v>
+      </c>
+      <c r="W312" t="n">
+        <v>0</v>
+      </c>
+      <c r="X312" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y312" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z312" t="n">
+        <v>1445</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -26603,6 +31293,21 @@
           <t>Proverbs 25</t>
         </is>
       </c>
+      <c r="V313" t="n">
+        <v>0</v>
+      </c>
+      <c r="W313" t="n">
+        <v>0</v>
+      </c>
+      <c r="X313" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y313" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z313" t="n">
+        <v>927</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -26680,6 +31385,21 @@
           <t>Proverbs 25</t>
         </is>
       </c>
+      <c r="V314" t="n">
+        <v>0</v>
+      </c>
+      <c r="W314" t="n">
+        <v>0</v>
+      </c>
+      <c r="X314" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y314" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z314" t="n">
+        <v>1600</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -26757,6 +31477,21 @@
           <t>Proverbs 25</t>
         </is>
       </c>
+      <c r="V315" t="n">
+        <v>0</v>
+      </c>
+      <c r="W315" t="n">
+        <v>0</v>
+      </c>
+      <c r="X315" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y315" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z315" t="n">
+        <v>1695</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -26834,6 +31569,21 @@
           <t>Proverbs 26</t>
         </is>
       </c>
+      <c r="V316" t="n">
+        <v>0</v>
+      </c>
+      <c r="W316" t="n">
+        <v>0</v>
+      </c>
+      <c r="X316" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y316" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z316" t="n">
+        <v>1722</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -26911,6 +31661,21 @@
           <t>Proverbs 26</t>
         </is>
       </c>
+      <c r="V317" t="n">
+        <v>0</v>
+      </c>
+      <c r="W317" t="n">
+        <v>0</v>
+      </c>
+      <c r="X317" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y317" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z317" t="n">
+        <v>1426</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -26988,6 +31753,21 @@
           <t>Proverbs 26</t>
         </is>
       </c>
+      <c r="V318" t="n">
+        <v>0</v>
+      </c>
+      <c r="W318" t="n">
+        <v>0</v>
+      </c>
+      <c r="X318" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y318" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z318" t="n">
+        <v>1620</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -27065,6 +31845,21 @@
           <t>Proverbs 26</t>
         </is>
       </c>
+      <c r="V319" t="n">
+        <v>0</v>
+      </c>
+      <c r="W319" t="n">
+        <v>0</v>
+      </c>
+      <c r="X319" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y319" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z319" t="n">
+        <v>2038</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -27142,6 +31937,21 @@
           <t>Proverbs 26</t>
         </is>
       </c>
+      <c r="V320" t="n">
+        <v>0</v>
+      </c>
+      <c r="W320" t="n">
+        <v>0</v>
+      </c>
+      <c r="X320" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y320" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z320" t="n">
+        <v>1475</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -27219,6 +32029,21 @@
           <t>Proverbs 26</t>
         </is>
       </c>
+      <c r="V321" t="n">
+        <v>0</v>
+      </c>
+      <c r="W321" t="n">
+        <v>0</v>
+      </c>
+      <c r="X321" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y321" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z321" t="n">
+        <v>1396</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -27296,6 +32121,21 @@
           <t>Proverbs 26</t>
         </is>
       </c>
+      <c r="V322" t="n">
+        <v>0</v>
+      </c>
+      <c r="W322" t="n">
+        <v>0</v>
+      </c>
+      <c r="X322" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y322" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z322" t="n">
+        <v>1615</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -27381,6 +32221,21 @@
           <t>Proverbs 26</t>
         </is>
       </c>
+      <c r="V323" t="n">
+        <v>0</v>
+      </c>
+      <c r="W323" t="n">
+        <v>0</v>
+      </c>
+      <c r="X323" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y323" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z323" t="n">
+        <v>1168</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -27466,6 +32321,21 @@
           <t>Proverbs 26</t>
         </is>
       </c>
+      <c r="V324" t="n">
+        <v>0</v>
+      </c>
+      <c r="W324" t="n">
+        <v>0</v>
+      </c>
+      <c r="X324" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y324" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z324" t="n">
+        <v>1444</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -27551,6 +32421,21 @@
           <t>Proverbs 27</t>
         </is>
       </c>
+      <c r="V325" t="n">
+        <v>0</v>
+      </c>
+      <c r="W325" t="n">
+        <v>0</v>
+      </c>
+      <c r="X325" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y325" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z325" t="n">
+        <v>1451</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -27636,6 +32521,21 @@
           <t>Proverbs 27</t>
         </is>
       </c>
+      <c r="V326" t="n">
+        <v>0</v>
+      </c>
+      <c r="W326" t="n">
+        <v>0</v>
+      </c>
+      <c r="X326" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y326" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z326" t="n">
+        <v>1536</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -27721,6 +32621,21 @@
           <t>Proverbs 27</t>
         </is>
       </c>
+      <c r="V327" t="n">
+        <v>0</v>
+      </c>
+      <c r="W327" t="n">
+        <v>0</v>
+      </c>
+      <c r="X327" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y327" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z327" t="n">
+        <v>1546</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -27806,6 +32721,21 @@
           <t>Proverbs 27</t>
         </is>
       </c>
+      <c r="V328" t="n">
+        <v>0</v>
+      </c>
+      <c r="W328" t="n">
+        <v>0</v>
+      </c>
+      <c r="X328" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y328" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z328" t="n">
+        <v>1391</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -27891,6 +32821,21 @@
           <t>Proverbs 27</t>
         </is>
       </c>
+      <c r="V329" t="n">
+        <v>0</v>
+      </c>
+      <c r="W329" t="n">
+        <v>0</v>
+      </c>
+      <c r="X329" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y329" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z329" t="n">
+        <v>1444</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -27976,6 +32921,21 @@
           <t>Proverbs 27</t>
         </is>
       </c>
+      <c r="V330" t="n">
+        <v>0</v>
+      </c>
+      <c r="W330" t="n">
+        <v>0</v>
+      </c>
+      <c r="X330" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y330" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z330" t="n">
+        <v>1225</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -28061,6 +33021,21 @@
           <t>Proverbs 27</t>
         </is>
       </c>
+      <c r="V331" t="n">
+        <v>0</v>
+      </c>
+      <c r="W331" t="n">
+        <v>0</v>
+      </c>
+      <c r="X331" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y331" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z331" t="n">
+        <v>1217</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -28146,6 +33121,21 @@
           <t>Proverbs 27</t>
         </is>
       </c>
+      <c r="V332" t="n">
+        <v>0</v>
+      </c>
+      <c r="W332" t="n">
+        <v>0</v>
+      </c>
+      <c r="X332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z332" t="n">
+        <v>1346</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -28231,6 +33221,21 @@
           <t>Proverbs 27</t>
         </is>
       </c>
+      <c r="V333" t="n">
+        <v>0</v>
+      </c>
+      <c r="W333" t="n">
+        <v>0</v>
+      </c>
+      <c r="X333" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y333" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z333" t="n">
+        <v>1504</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -28316,6 +33321,21 @@
           <t>Proverbs 28</t>
         </is>
       </c>
+      <c r="V334" t="n">
+        <v>0</v>
+      </c>
+      <c r="W334" t="n">
+        <v>0</v>
+      </c>
+      <c r="X334" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y334" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z334" t="n">
+        <v>1342</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -28401,6 +33421,21 @@
           <t>Proverbs 28</t>
         </is>
       </c>
+      <c r="V335" t="n">
+        <v>0</v>
+      </c>
+      <c r="W335" t="n">
+        <v>0</v>
+      </c>
+      <c r="X335" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y335" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z335" t="n">
+        <v>1461</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -28486,6 +33521,21 @@
           <t>Proverbs 28</t>
         </is>
       </c>
+      <c r="V336" t="n">
+        <v>0</v>
+      </c>
+      <c r="W336" t="n">
+        <v>0</v>
+      </c>
+      <c r="X336" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y336" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z336" t="n">
+        <v>1363</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -28571,6 +33621,21 @@
           <t>Proverbs 28</t>
         </is>
       </c>
+      <c r="V337" t="n">
+        <v>0</v>
+      </c>
+      <c r="W337" t="n">
+        <v>0</v>
+      </c>
+      <c r="X337" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y337" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z337" t="n">
+        <v>1757</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -28656,6 +33721,21 @@
           <t>Proverbs 28</t>
         </is>
       </c>
+      <c r="V338" t="n">
+        <v>0</v>
+      </c>
+      <c r="W338" t="n">
+        <v>0</v>
+      </c>
+      <c r="X338" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y338" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z338" t="n">
+        <v>1426</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -28741,6 +33821,21 @@
           <t>Proverbs 28</t>
         </is>
       </c>
+      <c r="V339" t="n">
+        <v>0</v>
+      </c>
+      <c r="W339" t="n">
+        <v>0</v>
+      </c>
+      <c r="X339" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y339" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z339" t="n">
+        <v>1311</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -28826,6 +33921,21 @@
           <t>Proverbs 28</t>
         </is>
       </c>
+      <c r="V340" t="n">
+        <v>0</v>
+      </c>
+      <c r="W340" t="n">
+        <v>0</v>
+      </c>
+      <c r="X340" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y340" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z340" t="n">
+        <v>960</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -28911,6 +34021,21 @@
           <t>Proverbs 28</t>
         </is>
       </c>
+      <c r="V341" t="n">
+        <v>0</v>
+      </c>
+      <c r="W341" t="n">
+        <v>0</v>
+      </c>
+      <c r="X341" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y341" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z341" t="n">
+        <v>1222</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -28996,6 +34121,21 @@
           <t>Proverbs 28</t>
         </is>
       </c>
+      <c r="V342" t="n">
+        <v>0</v>
+      </c>
+      <c r="W342" t="n">
+        <v>0</v>
+      </c>
+      <c r="X342" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y342" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z342" t="n">
+        <v>1417</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -29081,6 +34221,21 @@
           <t>Proverbs 29</t>
         </is>
       </c>
+      <c r="V343" t="n">
+        <v>0</v>
+      </c>
+      <c r="W343" t="n">
+        <v>0</v>
+      </c>
+      <c r="X343" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y343" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z343" t="n">
+        <v>1345</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -29166,6 +34321,21 @@
           <t>Proverbs 29</t>
         </is>
       </c>
+      <c r="V344" t="n">
+        <v>0</v>
+      </c>
+      <c r="W344" t="n">
+        <v>0</v>
+      </c>
+      <c r="X344" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y344" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z344" t="n">
+        <v>1388</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -29251,6 +34421,21 @@
           <t>Proverbs 29</t>
         </is>
       </c>
+      <c r="V345" t="n">
+        <v>0</v>
+      </c>
+      <c r="W345" t="n">
+        <v>0</v>
+      </c>
+      <c r="X345" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y345" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z345" t="n">
+        <v>1124</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -29336,6 +34521,21 @@
           <t>Proverbs 29</t>
         </is>
       </c>
+      <c r="V346" t="n">
+        <v>0</v>
+      </c>
+      <c r="W346" t="n">
+        <v>0</v>
+      </c>
+      <c r="X346" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y346" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z346" t="n">
+        <v>1359</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -29421,6 +34621,21 @@
           <t>Proverbs 29</t>
         </is>
       </c>
+      <c r="V347" t="n">
+        <v>0</v>
+      </c>
+      <c r="W347" t="n">
+        <v>0</v>
+      </c>
+      <c r="X347" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y347" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z347" t="n">
+        <v>1271</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -29506,6 +34721,21 @@
           <t>Proverbs 29</t>
         </is>
       </c>
+      <c r="V348" t="n">
+        <v>0</v>
+      </c>
+      <c r="W348" t="n">
+        <v>0</v>
+      </c>
+      <c r="X348" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y348" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z348" t="n">
+        <v>1424</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -29591,6 +34821,21 @@
           <t>Proverbs 29</t>
         </is>
       </c>
+      <c r="V349" t="n">
+        <v>0</v>
+      </c>
+      <c r="W349" t="n">
+        <v>0</v>
+      </c>
+      <c r="X349" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y349" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z349" t="n">
+        <v>1531</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -29676,6 +34921,21 @@
           <t>Proverbs 29</t>
         </is>
       </c>
+      <c r="V350" t="n">
+        <v>0</v>
+      </c>
+      <c r="W350" t="n">
+        <v>0</v>
+      </c>
+      <c r="X350" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y350" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z350" t="n">
+        <v>1395</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -29761,6 +35021,21 @@
           <t>Proverbs 30</t>
         </is>
       </c>
+      <c r="V351" t="n">
+        <v>343</v>
+      </c>
+      <c r="W351" t="n">
+        <v>323</v>
+      </c>
+      <c r="X351" t="n">
+        <v>47</v>
+      </c>
+      <c r="Y351" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z351" t="n">
+        <v>602</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -29846,6 +35121,21 @@
           <t>Proverbs 30</t>
         </is>
       </c>
+      <c r="V352" t="n">
+        <v>419</v>
+      </c>
+      <c r="W352" t="n">
+        <v>366</v>
+      </c>
+      <c r="X352" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y352" t="n">
+        <v>62</v>
+      </c>
+      <c r="Z352" t="n">
+        <v>636</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -29931,6 +35221,21 @@
           <t>Proverbs 30</t>
         </is>
       </c>
+      <c r="V353" t="n">
+        <v>0</v>
+      </c>
+      <c r="W353" t="n">
+        <v>0</v>
+      </c>
+      <c r="X353" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y353" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z353" t="n">
+        <v>1427</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -30016,6 +35321,21 @@
           <t>Proverbs 30</t>
         </is>
       </c>
+      <c r="V354" t="n">
+        <v>0</v>
+      </c>
+      <c r="W354" t="n">
+        <v>0</v>
+      </c>
+      <c r="X354" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y354" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z354" t="n">
+        <v>1460</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -30101,6 +35421,21 @@
           <t>Proverbs 30</t>
         </is>
       </c>
+      <c r="V355" t="n">
+        <v>0</v>
+      </c>
+      <c r="W355" t="n">
+        <v>0</v>
+      </c>
+      <c r="X355" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y355" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z355" t="n">
+        <v>1331</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -30186,6 +35521,21 @@
           <t>Proverbs 30</t>
         </is>
       </c>
+      <c r="V356" t="n">
+        <v>0</v>
+      </c>
+      <c r="W356" t="n">
+        <v>0</v>
+      </c>
+      <c r="X356" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y356" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z356" t="n">
+        <v>1344</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -30271,6 +35621,21 @@
           <t>Proverbs 30</t>
         </is>
       </c>
+      <c r="V357" t="n">
+        <v>0</v>
+      </c>
+      <c r="W357" t="n">
+        <v>0</v>
+      </c>
+      <c r="X357" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y357" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z357" t="n">
+        <v>1530</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -30356,6 +35721,21 @@
           <t>Proverbs 30</t>
         </is>
       </c>
+      <c r="V358" t="n">
+        <v>0</v>
+      </c>
+      <c r="W358" t="n">
+        <v>0</v>
+      </c>
+      <c r="X358" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y358" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z358" t="n">
+        <v>1282</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -30441,6 +35821,21 @@
           <t>Proverbs 31</t>
         </is>
       </c>
+      <c r="V359" t="n">
+        <v>0</v>
+      </c>
+      <c r="W359" t="n">
+        <v>0</v>
+      </c>
+      <c r="X359" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y359" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z359" t="n">
+        <v>1180</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -30526,6 +35921,21 @@
           <t>Proverbs 31</t>
         </is>
       </c>
+      <c r="V360" t="n">
+        <v>0</v>
+      </c>
+      <c r="W360" t="n">
+        <v>0</v>
+      </c>
+      <c r="X360" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y360" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z360" t="n">
+        <v>2025</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -30611,6 +36021,21 @@
           <t>Proverbs 31</t>
         </is>
       </c>
+      <c r="V361" t="n">
+        <v>0</v>
+      </c>
+      <c r="W361" t="n">
+        <v>0</v>
+      </c>
+      <c r="X361" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y361" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z361" t="n">
+        <v>1754</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -30696,6 +36121,21 @@
           <t>Proverbs 31</t>
         </is>
       </c>
+      <c r="V362" t="n">
+        <v>0</v>
+      </c>
+      <c r="W362" t="n">
+        <v>0</v>
+      </c>
+      <c r="X362" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y362" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z362" t="n">
+        <v>1522</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -30781,6 +36221,21 @@
           <t>Proverbs 31</t>
         </is>
       </c>
+      <c r="V363" t="n">
+        <v>0</v>
+      </c>
+      <c r="W363" t="n">
+        <v>0</v>
+      </c>
+      <c r="X363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z363" t="n">
+        <v>1754</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -30866,6 +36321,21 @@
           <t>Proverbs 31</t>
         </is>
       </c>
+      <c r="V364" t="n">
+        <v>0</v>
+      </c>
+      <c r="W364" t="n">
+        <v>0</v>
+      </c>
+      <c r="X364" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y364" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z364" t="n">
+        <v>1423</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -30951,6 +36421,21 @@
           <t>Proverbs 31</t>
         </is>
       </c>
+      <c r="V365" t="n">
+        <v>0</v>
+      </c>
+      <c r="W365" t="n">
+        <v>0</v>
+      </c>
+      <c r="X365" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y365" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z365" t="n">
+        <v>1670</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -31035,6 +36520,21 @@
         <is>
           <t>Proverbs 31</t>
         </is>
+      </c>
+      <c r="V366" t="n">
+        <v>0</v>
+      </c>
+      <c r="W366" t="n">
+        <v>0</v>
+      </c>
+      <c r="X366" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y366" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z366" t="n">
+        <v>1755</v>
       </c>
     </row>
   </sheetData>
